--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbin/Documents/Leetcode_and_Cpp/notes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbin/Documents/Leetcode_and_Cpp/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70650619-1100-7D42-B9A1-B6C74EA4C479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BDCDDC-31A5-7E44-B9AB-557788F62E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-3860" windowWidth="33600" windowHeight="20540" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
+    <workbookView xWindow="14160" yWindow="460" windowWidth="21460" windowHeight="20540" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="989">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1084">
   <si>
     <t>题号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2850,12 +2850,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>可以直接上递归，递归计算左右两子树能带来的最大收益。
-1. 包含当前节点的路径的最大和 = max(根值+左侧最大收益+右侧最大收益， 根值+左侧最大收益，根植+右侧最大收益).  
-2. 当前节点能为父节点带去的最大收益 = max(根值， 根值+左侧最大收益，根植+右侧最大收益)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode-cn.com/problems/binary-tree-maximum-path-sum/</t>
   </si>
   <si>
@@ -2982,12 +2976,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>来源：力扣（LeetCode）</t>
-  </si>
-  <si>
-    <t>著作权归领扣网络所有。商业转载请联系官方授权，非商业转载请注明出处。</t>
-  </si>
-  <si>
     <t>设计一个支持以下两种操作的数据结构：
 void addNum(int num) - 从数据流中添加一个整数到数据结构中。
 double findMedian() - 返回目前所有元素的中位数。</t>
@@ -3070,9 +3058,6 @@
   </si>
   <si>
     <t>给定一个包含 n 个整数的数组 nums 和一个目标值 target，判断 nums 中是否存在四个元素 a，b，c 和 d ，使得 a + b + c + d 的值与 target 相等？找出所有满足条件且不重复的四元组。</t>
-  </si>
-  <si>
-    <t>链接：https://leetcode-cn.com/problems/4sum</t>
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/4sum/</t>
@@ -4526,12 +4511,403 @@
   <si>
     <t>https://leetcode-cn.com/problems/convert-binary-search-tree-to-sorted-doubly-linked-list/</t>
   </si>
+  <si>
+    <t>字符串的排列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定两个字符串 s1 和 s2，写一个函数来判断 s2 是否包含 s1 的排列。
+换句话说，第一个字符串的排列之一是第二个字符串的子串。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接两个26字典存原字符串和当前窗口内的字符串，一直比较。也没什么其他办法。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/permutation-in-string/</t>
+  </si>
+  <si>
+    <t>杀死进程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、队列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n个进程，之间存在父子关系，构成一个树状结构。给定一个要杀死的进程号，返回一个序列，表示因为杀死这个进程而导致的所有被杀掉的进程号。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/kill-process/</t>
+  </si>
+  <si>
+    <t>用哈希表存每个节点的子节点，不真正去构建树。 当输入一个节点时，用迭代的BFS去向下遍历即可。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务调度器</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心算法、队列、数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一组CPU需要执行的任务列表。要求两个相同种类的任务之间必须有长度为n的冷却时间。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心思路，用一个优先队列存所有的任务，按其需要被执行的次数生成一个大顶堆，每次将整个堆弹出一遍各执行一次，再继续下一轮。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/task-scheduler/</t>
+  </si>
+  <si>
+    <t>设计循环队列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计一个循环队列实现，基于FIFO并且队尾被连在队首行程一个循环。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单的办法是使用链表实现，并且维护一个变量来记录队列是否为空。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/design-circular-queue/</t>
+  </si>
+  <si>
+    <t>设计双端循环队列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将上边的链表改成双链表就行了。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/design-circular-deque/</t>
+  </si>
+  <si>
+    <t>冗余连接</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>树、并查集、图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入一个图，这个图由含N个节点的树和一条附加边构成。返回一条可以删除的边，使结果成为一个有着N个节点的树。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/redundant-connection/</t>
+  </si>
+  <si>
+    <t>构建并查集，其实跟Kruskal算法很像了，不断地将边插入到集合中，一旦有某条边的两个端点在同一个集合中，那么这条边必是冗余边。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户合并</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS、并查集</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个accounts列表，每个元素是一个邮箱，其中第一个元素一个名字。现在要合并这些账户，如果一个账户同时出现在两个列表中，那么这两个列表中的邮箱必是属于一个人的。现在要求合并这些账户，并返回结果。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>并查集，但是要构建字典来存每个邮箱对应的人，最后再恢复回来。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/accounts-merge/</t>
+  </si>
+  <si>
+    <t>我的日程安排表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现一个MyCalendar类存放日程安排，如果要添加的时间内没有其他安排，则可以存储这个新的安排。
+当两个日程安排有时间交叉时，就会产生重复预定。
+每次插入时，如果能重复插入返回true，否则返回false</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用一个map存所有时间段的开始时间和结束时间(自动按开始时间排序)。 每次新日程来时，遍历即可。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/my-calendar-i/</t>
+  </si>
+  <si>
+    <t>句子相似性II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定两个句子，words1,words2，判断两个句子是否是相似的。
+会给定一组单词对，其中的单词是相似的。而且相似关系有对称性和传递性。一个单词与自身总是相似的。
+句子只有单词个数相同时才相似。
+判断两个句子的相似性。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>构建并查集，将相似的词放到一个集合中，然后用并查集判断两个句子的相似性即可。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sentence-similarity-ii/</t>
+  </si>
+  <si>
+    <t>网络延迟时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆、DFS、BFS、图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有N个网络节点，标记为1~N。给定一个列表，表示信号经过有向边的传递时间，例如times[i] = (u, v, w)，w是时间
+现在想节点K发送了一个信号，需要多久才能使所有节点都收到信号。如果不能返回-1.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准的Dikstra 算法。算出从源到所有汇的最小加权路径，然后找所有最小权重中的最大值即可。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/network-delay-time/</t>
+  </si>
+  <si>
+    <t>到达终点数字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在一根无限长的数轴上，你站在0的位置，终点在target的位置。每次可以选择向左或向右移动。第n次移动可以走n步。返回到达终点需要的最小移动次数。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/reach-a-number/</t>
+  </si>
+  <si>
+    <t>分奇偶讨论。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/median-of-two-sorted-arrays/</t>
+  </si>
+  <si>
+    <t>正则表达式匹配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串、动态规划、回溯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>要求支持 '.' 和 '*'，其中 '.' 可以匹配任意单个字符。
+'*' 匹配零个或多个前面的那个元素</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/regular-expression-matching/</t>
+  </si>
+  <si>
+    <t>通配符匹配</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心、字符串、动态规划、回溯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>合并 k 个排序链表，返回合并后的排序链表。请分析和描述算法的复杂度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定 n 个非负整数表示每个宽度为 1 的柱子的高度图，计算按此排列的柱子，下雨之后能接多少雨水。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个字符串 (s) 和一个字符模式 (p) ，实现一个支持 '?' 和 '*' 的通配符匹配。
+'?' 可以匹配任何单个字符， '*' 可以匹配任意字符串。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>仿照10.正则表达式匹配，递归匹配即可。用一个dp矩阵做记忆化。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/wildcard-matching/</t>
+  </si>
+  <si>
+    <t>递归匹配，关键是 '. '字符，当遇到'.' 时，可以选择原文不动，跳过通配符；也可以选择匹配当前字符，不跳过通配符。 
+递归同时用一个DP矩阵做记忆化。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入区间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给出一个无重叠的，按区间起始端点排序的区间列表。
+在列表中插入一个新区间，要确保列表中的区间仍然有序且不重叠。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>将新区间插入，对原数组按区间起点排序，然后逐个放入ans中，放入过程中逐个判断是否有重叠，有重叠则做更改即可。其实是一种贪心思想。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/insert-interval/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/jump-game-ii/</t>
+  </si>
+  <si>
+    <t>编辑距离</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定两个单词，计算edit distance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态规划即可，状态转移方程为：
+d[i,j]=min(d[i-1,j]+1 、d[i,j-1]+1、d[i-1,j-1]+temp)  ，其中temp = (word1[i-1] != word2[j-1])</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/edit-distance/</t>
+  </si>
+  <si>
+    <t>最大矩形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈、数组、哈希表、DP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个仅包含 0 和 1 的二维二进制矩阵，找出只包含 1 的最大矩形，并返回其面积。</t>
+  </si>
+  <si>
+    <t>可以直接上递归，递归计算左右两子树能带来的最大收益。
+1. 包含当前节点的路径的最大和 = max(根值+左侧最大收益+右侧最大收益， 根值+左侧最大收益，根植+右侧最大收益).  
+2. 当前节点能为父节点带去的最大收益 = max(根值， 根值+左侧最大收益，根植+右侧最大收益 )</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt 路径为一个点到任意一点，可以不经过根节点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先将矩阵压缩成一维，按行按列均可，然后就可转化为问题84，求柱状图中的最大矩形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/maximal-rectangle/</t>
+  </si>
+  <si>
+    <t>不同的子序列</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个字符串 S 和一个字符串 T，计算在 S 的子序列中 T 出现的个数。 例如:
+S = "rabbbit", T = "rabbit"，则有三种方案。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/distinct-subsequences/</t>
+  </si>
+  <si>
+    <t>动态规划，构建矩阵，若当前对应字符相等，则dp[i][j] = dp[i-1][j-1] + dp[i][j-1]; 否则dp[i][j] = dp[i][j-1];</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分发糖果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贪心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-consecutive-sequence/</t>
+  </si>
+  <si>
+    <t>给定一个未排序的整数数组，找出最长连续序列的长度。
+要求时间复杂度为O(n)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用一个字典存数字和该数字对应的左右边界的长度，类似并查集的思想。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给孩子们发糖果。要求每个孩子至少分配到一个糖果，相邻孩子中评分高的孩子必须获得更多糖果。
+问至少要准备多少糖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>先倒序扫描一次，每个人跟自己右边的比，糖少了给糖；
+再顺序扫描一次，每个人跟自己左边的比，糖少了给糖；</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/candy/</t>
+  </si>
+  <si>
+    <t>单词拆分II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个非空字符串 s 和一个包含非空单词列表的字典 wordDict，在字符串中增加空格来构建一个句子，使得句子中所有的单词都在词典中。返回所有这些可能的句子。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/word-break-ii/</t>
+  </si>
+  <si>
+    <t>动态规划、回溯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>带记忆化的回溯。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二叉树的后序遍历</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈、树</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rt，要求使用迭代</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套模板。
+要记录上一个访问的节点，只有当上一个访问的节点是当前节点的右子节点或右子节点为空时，才访问当前节点。否则去访问右子节点。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/binary-tree-postorder-traversal/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4661,6 +5037,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4687,7 +5070,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4755,6 +5138,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5072,10 +5458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA52792F-EFCF-8A4A-B829-88BCBEFF0CD1}">
-  <dimension ref="A1:I233"/>
+  <dimension ref="A1:I256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F208" zoomScale="143" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I210" sqref="I210"/>
+    <sheetView tabSelected="1" topLeftCell="G241" zoomScale="124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I246" sqref="I246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5180,7 +5566,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>40</v>
@@ -5189,17 +5575,17 @@
         <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="2" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="51">
@@ -5342,7 +5728,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>28</v>
@@ -5351,17 +5737,17 @@
         <v>7</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="2" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="119">
@@ -5369,7 +5755,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>96</v>
@@ -5415,7 +5801,7 @@
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="51">
@@ -5477,7 +5863,7 @@
         <v>67</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>356</v>
@@ -5486,17 +5872,17 @@
         <v>7</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="2" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="34">
@@ -5558,7 +5944,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>13</v>
@@ -5567,17 +5953,17 @@
         <v>7</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="2" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="68">
@@ -5612,7 +5998,7 @@
         <v>100</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>88</v>
@@ -5621,17 +6007,17 @@
         <v>7</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="68">
@@ -5693,7 +6079,7 @@
         <v>107</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>381</v>
@@ -5702,17 +6088,17 @@
         <v>7</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="2" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="34">
@@ -5747,7 +6133,7 @@
         <v>110</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>88</v>
@@ -5756,17 +6142,17 @@
         <v>7</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="2" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="51">
@@ -5774,26 +6160,26 @@
         <v>111</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="51">
@@ -5801,7 +6187,7 @@
         <v>112</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>88</v>
@@ -5810,17 +6196,17 @@
         <v>7</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="2" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="68">
@@ -6042,7 +6428,7 @@
         <v>169</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>117</v>
@@ -6258,7 +6644,7 @@
         <v>203</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>13</v>
@@ -6267,17 +6653,17 @@
         <v>7</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G44" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H44" s="6"/>
       <c r="I44" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="34">
@@ -6348,10 +6734,10 @@
         <v>7</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G47" s="6" t="s">
         <v>10</v>
@@ -6366,7 +6752,7 @@
         <v>225</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>90</v>
@@ -6375,17 +6761,17 @@
         <v>7</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H48" s="6"/>
       <c r="I48" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="17">
@@ -6393,7 +6779,7 @@
         <v>226</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>327</v>
@@ -6402,17 +6788,17 @@
         <v>7</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G49" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="34">
@@ -6420,26 +6806,26 @@
         <v>231</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="G50" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H50" s="6"/>
       <c r="I50" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="51">
@@ -6447,7 +6833,7 @@
         <v>232</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>90</v>
@@ -6456,17 +6842,17 @@
         <v>7</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G51" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="34">
@@ -6501,7 +6887,7 @@
         <v>235</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>327</v>
@@ -6510,17 +6896,17 @@
         <v>7</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H53" s="6"/>
       <c r="I53" s="8" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="29" customHeight="1">
@@ -6582,7 +6968,7 @@
         <v>243</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>69</v>
@@ -6591,17 +6977,17 @@
         <v>7</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="G56" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H56" s="6"/>
       <c r="I56" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="51">
@@ -6609,7 +6995,7 @@
         <v>246</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>44</v>
@@ -6618,17 +7004,17 @@
         <v>7</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="G57" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="2" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="34">
@@ -6636,7 +7022,7 @@
         <v>252</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>258</v>
@@ -6645,17 +7031,17 @@
         <v>7</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="G58" s="6" t="s">
         <v>249</v>
       </c>
       <c r="H58" s="6"/>
       <c r="I58" s="2" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="34">
@@ -6663,7 +7049,7 @@
         <v>258</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>40</v>
@@ -6672,17 +7058,17 @@
         <v>7</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>84</v>
       </c>
       <c r="H59" s="6"/>
       <c r="I59" s="2" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="34">
@@ -6690,7 +7076,7 @@
         <v>263</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>40</v>
@@ -6699,17 +7085,17 @@
         <v>7</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G60" s="9" t="s">
         <v>84</v>
       </c>
       <c r="H60" s="6"/>
       <c r="I60" s="2" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="34">
@@ -6798,26 +7184,26 @@
         <v>292</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="G64" s="6" t="s">
         <v>9</v>
       </c>
       <c r="H64" s="6"/>
       <c r="I64" s="2" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="51">
@@ -6879,26 +7265,26 @@
         <v>346</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="6" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="G67" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H67" s="6"/>
       <c r="I67" s="2" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
     </row>
     <row r="68" spans="1:9" ht="34">
@@ -6987,26 +7373,26 @@
         <v>392</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G71" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H71" s="6"/>
       <c r="I71" s="2" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
     </row>
     <row r="72" spans="1:9" ht="68">
@@ -7039,7 +7425,7 @@
         <v>415</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>96</v>
@@ -7048,16 +7434,16 @@
         <v>7</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
     </row>
     <row r="74" spans="1:9" ht="34">
@@ -7065,7 +7451,7 @@
         <v>437</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>327</v>
@@ -7074,16 +7460,16 @@
         <v>7</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
     </row>
     <row r="75" spans="1:9" ht="68">
@@ -7091,7 +7477,7 @@
         <v>448</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>69</v>
@@ -7100,16 +7486,16 @@
         <v>7</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>84</v>
       </c>
       <c r="I75" s="2" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
     </row>
     <row r="76" spans="1:9" ht="51">
@@ -7117,7 +7503,7 @@
         <v>461</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>146</v>
@@ -7126,16 +7512,16 @@
         <v>7</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="77" spans="1:9" ht="34">
@@ -7143,7 +7529,7 @@
         <v>557</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>96</v>
@@ -7152,16 +7538,16 @@
         <v>7</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I77" s="2" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="78" spans="1:9" ht="51">
@@ -7169,7 +7555,7 @@
         <v>581</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>69</v>
@@ -7178,16 +7564,16 @@
         <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>767</v>
+        <v>763</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I78" s="2" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
     </row>
     <row r="79" spans="1:9" ht="85">
@@ -7195,7 +7581,7 @@
         <v>617</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>327</v>
@@ -7204,16 +7590,16 @@
         <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>771</v>
+        <v>767</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
     </row>
     <row r="80" spans="1:9" ht="85">
@@ -7221,25 +7607,25 @@
         <v>687</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>774</v>
+        <v>770</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>775</v>
+        <v>771</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
     </row>
     <row r="81" spans="1:9" ht="51">
@@ -7247,7 +7633,7 @@
         <v>728</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>40</v>
@@ -7256,16 +7642,16 @@
         <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>782</v>
+        <v>778</v>
       </c>
     </row>
     <row r="82" spans="1:9" ht="34">
@@ -7273,25 +7659,25 @@
         <v>933</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="34">
@@ -7299,25 +7685,25 @@
         <v>997</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
     </row>
     <row r="84" spans="1:9" ht="17">
@@ -7325,30 +7711,30 @@
         <v>1042</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I84" s="2" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="17">
       <c r="C85" s="1" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="I85" s="2"/>
     </row>
@@ -7517,7 +7903,7 @@
         <v>16</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="C96" s="18" t="s">
         <v>28</v>
@@ -7526,17 +7912,17 @@
         <v>225</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H96" s="10"/>
       <c r="I96" s="2" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
     </row>
     <row r="97" spans="1:9" ht="34">
@@ -7570,25 +7956,25 @@
         <v>18</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>613</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I98" s="2" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="85">
@@ -7648,7 +8034,7 @@
         <v>24</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>13</v>
@@ -7657,16 +8043,16 @@
         <v>225</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="68">
@@ -7866,7 +8252,7 @@
         <v>271</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G109" s="6" t="s">
         <v>10</v>
@@ -7933,7 +8319,7 @@
         <v>59</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>69</v>
@@ -7942,16 +8328,16 @@
         <v>225</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I112" s="2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="51">
@@ -7959,7 +8345,7 @@
         <v>61</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>78</v>
@@ -7968,16 +8354,16 @@
         <v>225</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I113" s="2" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="68">
@@ -8011,7 +8397,7 @@
         <v>63</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>21</v>
@@ -8020,16 +8406,16 @@
         <v>225</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
     </row>
     <row r="116" spans="1:9" ht="34">
@@ -8037,7 +8423,7 @@
         <v>64</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>21</v>
@@ -8046,16 +8432,16 @@
         <v>225</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="68">
@@ -8167,7 +8553,7 @@
         <v>82</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>13</v>
@@ -8176,16 +8562,16 @@
         <v>225</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I121" s="2" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
     </row>
     <row r="122" spans="1:9" ht="51">
@@ -8193,7 +8579,7 @@
         <v>86</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>78</v>
@@ -8202,16 +8588,16 @@
         <v>225</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I122" s="2" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
     </row>
     <row r="123" spans="1:9" ht="68">
@@ -8219,7 +8605,7 @@
         <v>89</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>256</v>
@@ -8228,16 +8614,16 @@
         <v>225</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="G123" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I123" s="2" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="85">
@@ -8297,25 +8683,25 @@
         <v>96</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="G126" s="20" t="s">
         <v>84</v>
       </c>
       <c r="I126" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="119">
@@ -8427,25 +8813,25 @@
         <v>109</v>
       </c>
       <c r="B131" s="16" t="s">
+        <v>832</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I131" s="2" t="s">
         <v>836</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="F131" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I131" s="2" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="68">
@@ -8453,7 +8839,7 @@
         <v>113</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>366</v>
@@ -8462,16 +8848,16 @@
         <v>225</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I132" s="2" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="85">
@@ -8479,7 +8865,7 @@
         <v>114</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>88</v>
@@ -8488,16 +8874,16 @@
         <v>225</v>
       </c>
       <c r="E133" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I133" s="2" t="s">
         <v>561</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>563</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I133" s="2" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="102">
@@ -8557,25 +8943,25 @@
         <v>129</v>
       </c>
       <c r="B136" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>844</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I136" s="2" t="s">
         <v>845</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="G136" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I136" s="2" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="137" spans="1:9" ht="68">
@@ -8635,25 +9021,25 @@
         <v>133</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="G139" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I139" s="2" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="68">
@@ -8687,7 +9073,7 @@
         <v>137</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>146</v>
@@ -8696,16 +9082,16 @@
         <v>225</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="G141" s="3" t="s">
         <v>84</v>
       </c>
       <c r="I141" s="2" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="51">
@@ -8765,7 +9151,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>280</v>
@@ -8774,16 +9160,16 @@
         <v>225</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I144" s="2" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
     </row>
     <row r="145" spans="1:9" ht="34">
@@ -8791,7 +9177,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>88</v>
@@ -8800,16 +9186,16 @@
         <v>225</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I145" s="2" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="51">
@@ -8829,7 +9215,7 @@
         <v>231</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="G146" s="6" t="s">
         <v>84</v>
@@ -8879,7 +9265,7 @@
         <v>225</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>487</v>
@@ -8922,25 +9308,25 @@
         <v>159</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I150" s="2" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="51">
@@ -8974,25 +9360,25 @@
         <v>173</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I152" s="2" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="34">
@@ -9027,26 +9413,26 @@
         <v>199</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>225</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="G154" s="6" t="s">
         <v>10</v>
       </c>
       <c r="H154" s="6"/>
       <c r="I154" s="2" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="68">
@@ -9080,7 +9466,7 @@
         <v>201</v>
       </c>
       <c r="B156" s="22" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C156" s="22" t="s">
         <v>146</v>
@@ -9089,16 +9475,16 @@
         <v>225</v>
       </c>
       <c r="E156" s="22" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="G156" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I156" s="2" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="34">
@@ -9181,25 +9567,25 @@
         <v>211</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="D160" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I160" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>882</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>883</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>884</v>
-      </c>
-      <c r="G160" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I160" s="2" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="85">
@@ -9207,7 +9593,7 @@
         <v>213</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>21</v>
@@ -9216,16 +9602,16 @@
         <v>225</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I161" s="2" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
     </row>
     <row r="162" spans="1:9" ht="85">
@@ -9259,25 +9645,25 @@
         <v>220</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I163" s="2" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="119">
@@ -9415,25 +9801,25 @@
         <v>241</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="G169" s="3" t="s">
         <v>9</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="68">
@@ -9441,26 +9827,26 @@
         <v>244</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="G170" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H170" s="22"/>
       <c r="I170" s="2" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="51">
@@ -9468,26 +9854,26 @@
         <v>247</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="G171" s="16" t="s">
         <v>10</v>
       </c>
       <c r="H171" s="22"/>
       <c r="I171" s="2" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="34">
@@ -9547,7 +9933,7 @@
         <v>260</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>146</v>
@@ -9556,16 +9942,16 @@
         <v>225</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
     </row>
     <row r="175" spans="1:9" ht="92" customHeight="1">
@@ -9573,7 +9959,7 @@
         <v>261</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>315</v>
@@ -9582,16 +9968,16 @@
         <v>225</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I175" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="176" spans="1:9" ht="92" customHeight="1">
@@ -9599,25 +9985,25 @@
         <v>264</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="F176" s="16" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I176" s="2" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="102">
@@ -9625,7 +10011,7 @@
         <v>274</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>199</v>
@@ -9634,16 +10020,16 @@
         <v>225</v>
       </c>
       <c r="E177" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="F177" s="16" t="s">
+        <v>919</v>
+      </c>
+      <c r="G177" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I177" s="2" t="s">
         <v>920</v>
-      </c>
-      <c r="F177" s="16" t="s">
-        <v>923</v>
-      </c>
-      <c r="G177" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="I177" s="2" t="s">
-        <v>924</v>
       </c>
     </row>
     <row r="178" spans="1:9" ht="102">
@@ -9686,7 +10072,7 @@
         <v>225</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="F179" s="3" t="s">
         <v>307</v>
@@ -9703,7 +10089,7 @@
         <v>280</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>311</v>
@@ -9712,16 +10098,16 @@
         <v>225</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="F180" s="16" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="G180" s="16" t="s">
         <v>10</v>
       </c>
       <c r="I180" s="2" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
     </row>
     <row r="181" spans="1:9" ht="34">
@@ -9729,7 +10115,7 @@
         <v>281</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>230</v>
@@ -9738,16 +10124,16 @@
         <v>225</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="G181" s="16" t="s">
         <v>10</v>
       </c>
       <c r="I181" s="2" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
     </row>
     <row r="182" spans="1:9" ht="68">
@@ -9755,7 +10141,7 @@
         <v>284</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>230</v>
@@ -9764,16 +10150,16 @@
         <v>225</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="F182" s="16" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="G182" s="16" t="s">
         <v>10</v>
       </c>
       <c r="I182" s="2" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
     </row>
     <row r="183" spans="1:9" ht="85">
@@ -9790,7 +10176,7 @@
         <v>225</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="F183" s="16" t="s">
         <v>539</v>
@@ -9807,25 +10193,25 @@
         <v>286</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I184" s="2" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="85">
@@ -9859,25 +10245,25 @@
         <v>288</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="F186" s="22" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="G186" s="22" t="s">
         <v>10</v>
       </c>
       <c r="I186" s="2" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="51">
@@ -9938,25 +10324,25 @@
         <v>310</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I189" s="2" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
     </row>
     <row r="190" spans="1:9" ht="51">
@@ -9964,25 +10350,25 @@
         <v>313</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I190" s="2" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="85">
@@ -9990,7 +10376,7 @@
         <v>319</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>40</v>
@@ -9999,16 +10385,16 @@
         <v>225</v>
       </c>
       <c r="E191" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F191" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="F191" s="3" t="s">
-        <v>566</v>
       </c>
       <c r="G191" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I191" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="51">
@@ -10043,22 +10429,22 @@
         <v>323</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>225</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>324</v>
       </c>
       <c r="I193" s="2" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="51">
@@ -10092,25 +10478,25 @@
         <v>332</v>
       </c>
       <c r="B195" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="D195" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="F195" s="3" t="s">
         <v>951</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>953</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>955</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>309</v>
       </c>
       <c r="I195" s="2" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="68">
@@ -10219,25 +10605,25 @@
         <v>353</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="G200" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I200" s="2" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="102">
@@ -10245,25 +10631,25 @@
         <v>355</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="D201" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I201" s="2" t="s">
         <v>960</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>961</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>962</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>963</v>
-      </c>
-      <c r="G201" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I201" s="2" t="s">
-        <v>964</v>
       </c>
     </row>
     <row r="202" spans="1:9" ht="34">
@@ -10271,25 +10657,25 @@
         <v>357</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>962</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>965</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>966</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>967</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>969</v>
       </c>
       <c r="G202" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I202" s="2" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="34">
@@ -10297,7 +10683,7 @@
         <v>372</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>40</v>
@@ -10306,16 +10692,16 @@
         <v>225</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>84</v>
       </c>
       <c r="I203" s="2" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
     </row>
     <row r="204" spans="1:9" ht="102">
@@ -10419,25 +10805,25 @@
         <v>399</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I208" s="2" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
     </row>
     <row r="209" spans="1:9" ht="102">
@@ -10445,25 +10831,25 @@
         <v>424</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="G209" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I209" s="2" t="s">
         <v>979</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>981</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>982</v>
-      </c>
-      <c r="G209" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I209" s="2" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="210" spans="1:9" ht="102">
@@ -10471,25 +10857,25 @@
         <v>426</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="D210" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="G210" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I210" s="2" t="s">
         <v>984</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>985</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="G210" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I210" s="2" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="211" spans="1:9" ht="51">
@@ -10523,7 +10909,7 @@
         <v>560</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>194</v>
@@ -10532,312 +10918,340 @@
         <v>225</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="G212" s="5" t="s">
         <v>9</v>
       </c>
       <c r="I212" s="2" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" ht="78" customHeight="1">
-      <c r="A217" s="3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="68">
+      <c r="A213" s="1">
+        <v>567</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="D213" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="F213" s="13" t="s">
+        <v>987</v>
+      </c>
+      <c r="G213" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I213" s="2" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="51">
+      <c r="A214" s="1">
+        <v>582</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="F214" s="13" t="s">
+        <v>993</v>
+      </c>
+      <c r="G214" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I214" s="2" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="51">
+      <c r="A215" s="1">
+        <v>621</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="F215" s="13" t="s">
+        <v>997</v>
+      </c>
+      <c r="G215" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I215" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="34">
+      <c r="A216" s="1">
+        <v>622</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F216" s="13" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G216" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I216" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="17">
+      <c r="A217" s="1">
+        <v>641</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="F217" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G217" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I217" s="2" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="51">
+      <c r="A218" s="1">
+        <v>684</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F218" s="13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G218" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I218" s="2" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="68">
+      <c r="A219" s="1">
+        <v>721</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F219" s="13" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G219" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="I219" s="2" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="68">
+      <c r="A220" s="1">
+        <v>729</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F220" s="13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G220" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="I220" s="2" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="102">
+      <c r="A221" s="1">
+        <v>737</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D221" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F221" s="13" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G221" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I221" s="2" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="68">
+      <c r="A222" s="1">
+        <v>743</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D222" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F222" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G222" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I222" s="2" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="51">
+      <c r="A223" s="1">
+        <v>754</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F223" s="13" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G223" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="I223" s="2" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
+      <c r="F224" s="13"/>
+      <c r="G224" s="13"/>
+      <c r="I224" s="2"/>
+    </row>
+    <row r="225" spans="1:9">
+      <c r="F225" s="13"/>
+      <c r="G225" s="13"/>
+    </row>
+    <row r="226" spans="1:9">
+      <c r="F226" s="13"/>
+      <c r="G226" s="13"/>
+    </row>
+    <row r="227" spans="1:9">
+      <c r="F227" s="13"/>
+      <c r="G227" s="13"/>
+    </row>
+    <row r="228" spans="1:9">
+      <c r="F228" s="13"/>
+      <c r="G228" s="13"/>
+    </row>
+    <row r="229" spans="1:9" ht="78" customHeight="1">
+      <c r="A229" s="3">
         <v>4</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B229" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E229" s="1" t="s">
         <v>597</v>
-      </c>
-      <c r="C217" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D217" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="F217" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="G217" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" ht="97" customHeight="1">
-      <c r="A218" s="1">
-        <v>23</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>553</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>554</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>614</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="G218" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I218" s="2" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" ht="34">
-      <c r="A219" s="1">
-        <v>25</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>584</v>
-      </c>
-      <c r="G219" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I219" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" ht="170">
-      <c r="A220" s="3">
-        <v>42</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="C220" s="5" t="s">
-        <v>550</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>592</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="G220" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I220" s="2" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" ht="17">
-      <c r="A221" s="1">
-        <v>45</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>578</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>579</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="G221" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" ht="34">
-      <c r="A222" s="1">
-        <v>76</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>620</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" ht="74" customHeight="1">
-      <c r="A223" s="1">
-        <v>84</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="F223" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="G223" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I223" s="2" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" ht="119">
-      <c r="A224" s="1">
-        <v>124</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>557</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>558</v>
-      </c>
-      <c r="G224" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I224" s="2" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" ht="17">
-      <c r="A225" s="1">
-        <v>128</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>643</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" ht="51">
-      <c r="A226" s="1">
-        <v>149</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>545</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="G226" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I226" s="2" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" ht="136">
-      <c r="A227" s="1">
-        <v>269</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>639</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="G227" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I227" s="2" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" ht="97" customHeight="1">
-      <c r="A228" s="1">
-        <v>287</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>603</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="G228" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I228" s="2" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" ht="68">
-      <c r="A229" s="1">
-        <v>295</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>594</v>
       </c>
       <c r="F229" s="3" t="s">
         <v>595</v>
@@ -10846,105 +11260,640 @@
         <v>84</v>
       </c>
       <c r="I229" s="2" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" ht="68">
-      <c r="A230" s="1">
-        <v>301</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>574</v>
-      </c>
-      <c r="D230" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" s="13" customFormat="1" ht="78" customHeight="1">
+      <c r="A230" s="13">
+        <v>10</v>
+      </c>
+      <c r="B230" s="13" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D230" s="13" t="s">
         <v>546</v>
       </c>
-      <c r="E230" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="G230" s="1" t="s">
-        <v>10</v>
+      <c r="E230" s="13" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F230" s="13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G230" s="13" t="s">
+        <v>324</v>
       </c>
       <c r="I230" s="2" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" ht="119">
-      <c r="A231" s="1">
-        <v>381</v>
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="97" customHeight="1">
+      <c r="A231" s="23">
+        <v>23</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>599</v>
+        <v>553</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>230</v>
+        <v>554</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>546</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>600</v>
-      </c>
-      <c r="F231" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="G231" s="5" t="s">
-        <v>84</v>
+        <v>1040</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" ht="17">
-      <c r="A232" s="1">
-        <v>458</v>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="34">
+      <c r="A232" s="23">
+        <v>25</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>564</v>
+        <v>580</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" ht="68">
+      <c r="E232" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I232" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="170">
       <c r="A233" s="1">
-        <v>862</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>486</v>
+        <v>42</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>550</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>546</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="F233" s="3" t="s">
-        <v>608</v>
+        <v>1041</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>551</v>
       </c>
       <c r="G233" s="5" t="s">
         <v>84</v>
       </c>
       <c r="I233" s="2" t="s">
-        <v>610</v>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" s="13" customFormat="1" ht="51">
+      <c r="A234" s="13">
+        <v>44</v>
+      </c>
+      <c r="B234" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C234" s="13" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D234" s="13" t="s">
+        <v>546</v>
+      </c>
+      <c r="E234" s="13" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F234" s="13" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G234" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I234" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="17">
+      <c r="A235" s="1">
+        <v>45</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I235" s="2" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="68">
+      <c r="A236" s="1">
+        <v>57</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I236" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="68">
+      <c r="A237" s="1">
+        <v>72</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="I237" s="2" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="34">
+      <c r="A238" s="3">
+        <v>76</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="74" customHeight="1">
+      <c r="A239" s="1">
+        <v>84</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="G239" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I239" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="74" customHeight="1">
+      <c r="A240" s="1">
+        <v>85</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I240" s="2" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="74" customHeight="1">
+      <c r="A241" s="1">
+        <v>115</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I241" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="119">
+      <c r="A242" s="1">
+        <v>124</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I242" s="2" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="34">
+      <c r="A243" s="1">
+        <v>128</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I243" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="68">
+      <c r="A244" s="1">
+        <v>135</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I244" s="2" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="51">
+      <c r="A245" s="1">
+        <v>140</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I245" s="2" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="68">
+      <c r="A246" s="1">
+        <v>145</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I246" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="51">
+      <c r="A247" s="1">
+        <v>149</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I247" s="2" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="136">
+      <c r="A248" s="1">
+        <v>269</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I248" s="2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="97" customHeight="1">
+      <c r="A249" s="1">
+        <v>287</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I249" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="68">
+      <c r="A250" s="1">
+        <v>295</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G250" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I250" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="68">
+      <c r="A251" s="1">
+        <v>301</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I251" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="119">
+      <c r="A252" s="1">
+        <v>381</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G252" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I252" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="17">
+      <c r="B253" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="68">
+      <c r="B254" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="G254" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I254" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="A255" s="1">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="A256" s="1">
+        <v>862</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I213">
-    <sortCondition ref="D2:D213"/>
-    <sortCondition ref="A2:A213"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I225">
+    <sortCondition ref="D2:D225"/>
+    <sortCondition ref="A2:A225"/>
   </sortState>
   <dataConsolidate/>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -11055,26 +12004,26 @@
     <hyperlink ref="I196" r:id="rId104" xr:uid="{565305EB-A7EF-394B-9970-21D673BD618A}"/>
     <hyperlink ref="I183" r:id="rId105" xr:uid="{DA7C2087-3C83-4541-8B02-B4BDD1D9AABA}"/>
     <hyperlink ref="I172" r:id="rId106" xr:uid="{6B971B47-171E-DF4F-90DC-11523FFD6E71}"/>
-    <hyperlink ref="I226" r:id="rId107" xr:uid="{50469B19-2610-3C46-B089-4FD78C52D7DE}"/>
-    <hyperlink ref="I220" r:id="rId108" xr:uid="{37FBE288-5659-0A47-B022-5E0C9DDF6235}"/>
-    <hyperlink ref="I218" r:id="rId109" xr:uid="{5B936A22-502C-3940-9D79-F21A056A365E}"/>
-    <hyperlink ref="I224" r:id="rId110" xr:uid="{CC72B58A-9A22-4C40-962E-6831ED2B2C5B}"/>
+    <hyperlink ref="I247" r:id="rId107" xr:uid="{50469B19-2610-3C46-B089-4FD78C52D7DE}"/>
+    <hyperlink ref="I233" r:id="rId108" xr:uid="{37FBE288-5659-0A47-B022-5E0C9DDF6235}"/>
+    <hyperlink ref="I231" r:id="rId109" xr:uid="{5B936A22-502C-3940-9D79-F21A056A365E}"/>
+    <hyperlink ref="I242" r:id="rId110" xr:uid="{CC72B58A-9A22-4C40-962E-6831ED2B2C5B}"/>
     <hyperlink ref="I133" r:id="rId111" xr:uid="{C949C09A-2384-084B-854A-72A9938165BF}"/>
     <hyperlink ref="I191" r:id="rId112" xr:uid="{36C0DAB0-5DB8-D74D-9B65-2DAB90F0D618}"/>
     <hyperlink ref="I175" r:id="rId113" xr:uid="{8831012C-326F-C74E-9CAC-BE0E45BD484E}"/>
-    <hyperlink ref="I230" r:id="rId114" xr:uid="{A78E2F8F-FD47-B542-8DFC-83B636479563}"/>
-    <hyperlink ref="I219" r:id="rId115" xr:uid="{41FFAA8D-5342-3645-8628-A7444385DE3D}"/>
-    <hyperlink ref="I223" r:id="rId116" xr:uid="{35C2ECAF-C6CF-D94A-842F-65238D0F5E26}"/>
-    <hyperlink ref="I229" r:id="rId117" xr:uid="{FEE022EB-39CE-B040-9EC8-5C63465C49E5}"/>
-    <hyperlink ref="I231" r:id="rId118" xr:uid="{7155379E-BED3-1147-BBDD-FB9194E40941}"/>
-    <hyperlink ref="I228" r:id="rId119" xr:uid="{00529813-289E-FA45-B3DB-F9865DF54C47}"/>
-    <hyperlink ref="I233" r:id="rId120" xr:uid="{2255D6D5-3A4B-0642-B46C-FA77C6A01755}"/>
+    <hyperlink ref="I251" r:id="rId114" xr:uid="{A78E2F8F-FD47-B542-8DFC-83B636479563}"/>
+    <hyperlink ref="I232" r:id="rId115" xr:uid="{41FFAA8D-5342-3645-8628-A7444385DE3D}"/>
+    <hyperlink ref="I239" r:id="rId116" xr:uid="{35C2ECAF-C6CF-D94A-842F-65238D0F5E26}"/>
+    <hyperlink ref="I250" r:id="rId117" xr:uid="{FEE022EB-39CE-B040-9EC8-5C63465C49E5}"/>
+    <hyperlink ref="I252" r:id="rId118" xr:uid="{7155379E-BED3-1147-BBDD-FB9194E40941}"/>
+    <hyperlink ref="I249" r:id="rId119" xr:uid="{00529813-289E-FA45-B3DB-F9865DF54C47}"/>
+    <hyperlink ref="I254" r:id="rId120" xr:uid="{2255D6D5-3A4B-0642-B46C-FA77C6A01755}"/>
     <hyperlink ref="I98" r:id="rId121" xr:uid="{4864490C-B08B-874E-8DC0-BED3D27255A4}"/>
     <hyperlink ref="I212" r:id="rId122" xr:uid="{C3A26F2A-D78C-C341-99A8-BDDBC3A3E5FA}"/>
     <hyperlink ref="I123" r:id="rId123" xr:uid="{490CCE9D-2833-D641-AF49-60151F68E2CB}"/>
     <hyperlink ref="I189" r:id="rId124" xr:uid="{6F1FD4DF-2CAA-6542-BC51-D03026E648CA}"/>
     <hyperlink ref="I193" r:id="rId125" xr:uid="{B1C191E7-427D-FA49-8F8D-71930E3C43EC}"/>
-    <hyperlink ref="I227" r:id="rId126" xr:uid="{5DF6792E-CB67-9849-ACAE-610E8193CAE4}"/>
+    <hyperlink ref="I248" r:id="rId126" xr:uid="{5DF6792E-CB67-9849-ACAE-610E8193CAE4}"/>
     <hyperlink ref="I4" r:id="rId127" xr:uid="{7C87F529-8464-7745-BDC3-50EE8227E343}"/>
     <hyperlink ref="I10" r:id="rId128" xr:uid="{DAEA7C5D-2130-AB47-8B55-7BC3E37A4FAD}"/>
     <hyperlink ref="I15" r:id="rId129" xr:uid="{03F641E5-A386-FA43-BAF9-1DDE2C2A75AA}"/>
@@ -11151,6 +12100,29 @@
     <hyperlink ref="I208" r:id="rId200" xr:uid="{0EE3283B-48D6-424D-B1F6-2916CA72117A}"/>
     <hyperlink ref="I209" r:id="rId201" xr:uid="{9136C5FF-A3A7-E446-8704-D719DC73218A}"/>
     <hyperlink ref="I210" r:id="rId202" xr:uid="{050C7CCD-B828-CA45-9764-6BF0AEFE3F36}"/>
+    <hyperlink ref="I213" r:id="rId203" xr:uid="{64CFE6C0-98BE-DF4B-83E1-B8AEC863C715}"/>
+    <hyperlink ref="I214" r:id="rId204" xr:uid="{BEC3994D-94C0-E045-A08B-238DAD542ABE}"/>
+    <hyperlink ref="I215" r:id="rId205" xr:uid="{FFB45861-7A3D-1644-9EEA-5B0A1C0BCB24}"/>
+    <hyperlink ref="I216" r:id="rId206" xr:uid="{D08E86D2-E018-3A41-8F87-4686989E7755}"/>
+    <hyperlink ref="I217" r:id="rId207" xr:uid="{6C11A0B4-AE92-074F-BB49-769C543CC740}"/>
+    <hyperlink ref="I218" r:id="rId208" xr:uid="{DDB27839-422B-4E42-954B-1B0A5D35B523}"/>
+    <hyperlink ref="I219" r:id="rId209" xr:uid="{CECDFF27-3435-5240-9175-972AA8617E75}"/>
+    <hyperlink ref="I220" r:id="rId210" xr:uid="{FBFA06D3-A235-9844-ACAC-00A39531A39F}"/>
+    <hyperlink ref="I221" r:id="rId211" xr:uid="{57C328EC-9D1E-CA4A-B1B5-2CC014B964F9}"/>
+    <hyperlink ref="I222" r:id="rId212" xr:uid="{284DEF40-EC26-484F-AEEC-DE4E8BF504C5}"/>
+    <hyperlink ref="I223" r:id="rId213" xr:uid="{2A73BEC6-7E0D-BC4B-8447-D5124D7D5176}"/>
+    <hyperlink ref="I229" r:id="rId214" xr:uid="{DCB39C33-F172-F54A-A6F2-4BF32DEEF072}"/>
+    <hyperlink ref="I230" r:id="rId215" xr:uid="{7900884E-D703-954F-82BA-C28CA0530BEA}"/>
+    <hyperlink ref="I234" r:id="rId216" xr:uid="{4DF029A2-060C-0C40-9D4D-F4F37EA15E6C}"/>
+    <hyperlink ref="I236" r:id="rId217" xr:uid="{2C9B13C1-23EA-774C-8523-D1177CAA7B8A}"/>
+    <hyperlink ref="I235" r:id="rId218" xr:uid="{89832C0F-46C0-5F43-8A0B-9DE4B6B76363}"/>
+    <hyperlink ref="I237" r:id="rId219" xr:uid="{A1A3FE4F-9F6D-8E4C-AFAE-A251CD71BC0F}"/>
+    <hyperlink ref="I240" r:id="rId220" xr:uid="{0DF5F048-3F24-914B-BF40-E461F9043466}"/>
+    <hyperlink ref="I241" r:id="rId221" xr:uid="{9FD7A85E-DB2C-D546-B078-B0A8BC415931}"/>
+    <hyperlink ref="I243" r:id="rId222" xr:uid="{BD47BB89-838E-E44A-AACF-18E1D093CB00}"/>
+    <hyperlink ref="I244" r:id="rId223" xr:uid="{4718DD3A-DAE8-0645-9778-33FF97C62CCD}"/>
+    <hyperlink ref="I245" r:id="rId224" xr:uid="{423B43DB-2534-1D44-B8DB-16755262F54D}"/>
+    <hyperlink ref="I246" r:id="rId225" xr:uid="{B96CED60-11E5-594A-832B-B4066C2FA798}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbin/Documents/Leetcode_and_Cpp/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BDCDDC-31A5-7E44-B9AB-557788F62E6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D50BA5-9406-EB4C-A7E5-7AB55552C960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="460" windowWidth="21460" windowHeight="20540" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="1140">
   <si>
     <t>题号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -4901,6 +4901,231 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/binary-tree-postorder-traversal/</t>
+  </si>
+  <si>
+    <t>数字1的个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个整数，计算所有小于等于n的非负整数中1出现的个数。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/number-of-digit-one/</t>
+  </si>
+  <si>
+    <t>min(max(n mod (i*10)) - I + 1, 0), i),表示第i位中1出现的次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口最大值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆、滑动窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个数组 nums，有一个大小为 k 的滑动窗口从数组的最左侧移动到数组的最右侧。你只可以看到在滑动窗口内的 k 个数字。滑动窗口每次只向右移动一位。
+ 返回每一步滑动窗口中的最大值
+要求线性复杂度。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用双端队列或双指针，每一步记录当前最大值，只有弹出去的是最大值时，才重新扫描一遍算出最大值。实际上只是近似O(n), 最差情况下依然是O(kn)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/sliding-window-maximum/</t>
+  </si>
+  <si>
+    <t>中心对称数III</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中心对称数是旋转180度看起来仍相同的数字。
+计算在[low, high]之间的中心对称数。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法有点傻，用之前中心对称数II的方法，算出固定位的中心对称数。 有点像优化的暴力法。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/strobogrammatic-number-iii/</t>
+  </si>
+  <si>
+    <t>最接近的二叉搜索树值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个不为空的二叉搜索树和一个目标值target，请在二叉搜索树中找到最接近target的k个值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中序遍历，存结果，然后取最接近的k个即可（按差的绝对值排序）。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岛屿数量II</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个2d地图，每个格子起始都是水，然后逐渐加入陆地，请算出每次加入陆地后岛屿的数量。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/number-of-islands-ii/</t>
+  </si>
+  <si>
+    <t>这个题还是稍微有些复杂的，每次加入后都重新搜一遍必会超时。
+所以可以当新陆地来时，先默认会增加一块陆地，然后四周搜一下，如果跟旁边的已经是一个爹了，跳过，否则跟旁边的合并，岛屿数量减一。因为会存在当插入一个岛屿时将周围几片岛屿连在一起的情况。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戳气球</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有n个气球，编号为0~n-1, 每个气球上都有一个数字，存在数组nums中。
+每次戳气球时可以获得相邻气球nums[left] * nums[i] * nums[right]个硬币。
+求能获得硬币的最大值。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回溯会超时，包括带记忆化的回溯，因为每种情况都要考虑一次。
+所以考虑动态规划，存一个dp矩阵，记录如果当前气球是从i到j，那么戳破这些气球最多可获得多少硬币。然后一层一层迭代。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/burst-balloons/</t>
+  </si>
+  <si>
+    <t>计算右侧小于当前元素的个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>排序、树状数组、线段树、二分查找、分治</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 暴力法居然可以过。
+2. 优化暴力法，将之前遍历过的排序，或者用multiset之类的
+3. 二叉搜索树，每个节点都记录一个变量val和一个count记录小于该节点的个数。
+4. 利用归并排序和树状数组。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/count-of-smaller-numbers-after-self/</t>
+  </si>
+  <si>
+    <t>去除重复字母</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>栈、贪心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个仅包含小写字母的字符串，去除重复字母。并且需要保证返回的结果的字典序最小。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用栈，栈中先走一个a做哨兵，然后逐个压入栈中，如果栈顶元素大于当前元素，并且后边栈顶元素还会出现，则说明栈顶元素可以被删掉，这样直到能找到合适位置为止。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/remove-duplicate-letters/</t>
+  </si>
+  <si>
+    <t>矩阵中的最长递增路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS、拓扑排序、记忆化</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个整数矩阵，找出最长递增路径的长度。</t>
+  </si>
+  <si>
+    <t>标准的记忆化，套模板就行。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-increasing-path-in-a-matrix/</t>
+  </si>
+  <si>
+    <t>至多包含K个不同字符的最长字串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈希表、字符串、滑动窗口</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个字符串，找出至多包含k个不同字符的最长字串T</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口，用哈希表记录窗口中的元素，快指针向前走，每当窗口中不同元素大于k时，慢指针持续跟进，直到窗口中不同元素不大于k。
+虽然是双重循环，但时间复杂度仍是O(n)，因为每个元素最多被放入字典一次，被从字典拿出一次。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-substring-with-at-most-k-distinct-characters/</t>
+  </si>
+  <si>
+    <t>K距离间隔重排字符串</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>堆、贪心、哈希表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">给你一个非空的字符串 s 和一个整数 k，你要将这个字符串中的字母进行重新排列，使得重排后的字符串中相同字母的位置间隔距离至少为 k。
+输入: s = "aabbcc", k = 3
+输出: "abcabc" </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/rearrange-string-k-distance-apart/</t>
+  </si>
+  <si>
+    <t>用优先队列，优先排出现频率最高的，该字母没用完的话再放回堆里。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩形区域不超过K的最大数值和</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>队列、二分查找、DP</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个矩阵一个整数k，找到这个矩阵内部不大于k的最大矩形和。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力法，四重循环直接算。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/max-sum-of-rectangle-no-larger-than-k/</t>
+  </si>
+  <si>
+    <t>最短特异单词缩写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>位运算、回溯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>给定一个目标字符串和一个字符串字典，为目标字符串找一个最短长度的缩写，同时这个缩写不能跟字典中的重复。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5458,10 +5683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA52792F-EFCF-8A4A-B829-88BCBEFF0CD1}">
-  <dimension ref="A1:I256"/>
+  <dimension ref="A1:I267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G241" zoomScale="124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I246" sqref="I246"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F267" sqref="F267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -11706,6 +11931,9 @@
       <c r="D247" s="1" t="s">
         <v>546</v>
       </c>
+      <c r="E247" s="1" t="s">
+        <v>856</v>
+      </c>
       <c r="F247" s="1" t="s">
         <v>547</v>
       </c>
@@ -11716,178 +11944,506 @@
         <v>548</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="136">
+    <row r="248" spans="1:9" ht="34">
       <c r="A248" s="1">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>635</v>
+        <v>1084</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>445</v>
+        <v>40</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>546</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>636</v>
+        <v>1085</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>637</v>
+        <v>1087</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>10</v>
+        <v>309</v>
       </c>
       <c r="I248" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" ht="97" customHeight="1">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="85">
       <c r="A249" s="1">
-        <v>287</v>
+        <v>239</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>600</v>
+        <v>1088</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>230</v>
+        <v>1089</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>546</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>601</v>
+        <v>1090</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>603</v>
+        <v>1091</v>
       </c>
       <c r="G249" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I249" s="2" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" ht="68">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="34">
       <c r="A250" s="1">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>589</v>
+        <v>1093</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>590</v>
+        <v>902</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>546</v>
       </c>
       <c r="E250" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="F250" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="G250" s="5" t="s">
-        <v>84</v>
+        <v>1094</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I250" s="2" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" ht="68">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="136">
       <c r="A251" s="1">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>572</v>
+        <v>635</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>573</v>
+        <v>445</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>546</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>574</v>
+        <v>636</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I251" s="2" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" ht="119">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="34">
       <c r="A252" s="1">
-        <v>381</v>
+        <v>272</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>596</v>
+        <v>1097</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>230</v>
+        <v>1080</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>546</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="F252" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="G252" s="5" t="s">
-        <v>84</v>
+        <v>1098</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="I252" s="2" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" ht="17">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="68">
+      <c r="A253" s="1">
+        <v>295</v>
+      </c>
       <c r="B253" s="1" t="s">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>40</v>
+        <v>590</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" ht="68">
+      <c r="E253" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="G253" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I253" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="97" customHeight="1">
+      <c r="A254" s="1">
+        <v>297</v>
+      </c>
       <c r="B254" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>486</v>
+        <v>230</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>546</v>
       </c>
       <c r="E254" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I254" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="68">
+      <c r="A255" s="1">
+        <v>301</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I255" s="2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="119">
+      <c r="A256" s="1">
+        <v>305</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G256" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I256" s="2" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="85">
+      <c r="A257" s="1">
+        <v>312</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G257" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I257" s="2" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="102">
+      <c r="A258" s="1">
+        <v>315</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G258" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="I258" s="2" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="68">
+      <c r="A259" s="1">
+        <v>316</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I259" s="2" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="34">
+      <c r="A260" s="1">
+        <v>329</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I260" s="2" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="102">
+      <c r="A261" s="1">
+        <v>340</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I261" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="85">
+      <c r="A262" s="1">
+        <v>358</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I262" s="2" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="34">
+      <c r="A263" s="1">
+        <v>363</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I263" s="2" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="119">
+      <c r="A264" s="1">
+        <v>381</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="G264" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I264" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="51">
+      <c r="A265" s="1">
+        <v>411</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F265" s="3"/>
+      <c r="G265" s="5"/>
+      <c r="I265" s="2"/>
+    </row>
+    <row r="266" spans="1:9" ht="17">
+      <c r="A266" s="1">
+        <v>458</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="68">
+      <c r="A267" s="1">
+        <v>862</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="E267" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="F254" s="3" t="s">
+      <c r="F267" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="G254" s="5" t="s">
+      <c r="G267" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I254" s="2" t="s">
+      <c r="I267" s="2" t="s">
         <v>607</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9">
-      <c r="A255" s="1">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9">
-      <c r="A256" s="1">
-        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -12011,19 +12567,19 @@
     <hyperlink ref="I133" r:id="rId111" xr:uid="{C949C09A-2384-084B-854A-72A9938165BF}"/>
     <hyperlink ref="I191" r:id="rId112" xr:uid="{36C0DAB0-5DB8-D74D-9B65-2DAB90F0D618}"/>
     <hyperlink ref="I175" r:id="rId113" xr:uid="{8831012C-326F-C74E-9CAC-BE0E45BD484E}"/>
-    <hyperlink ref="I251" r:id="rId114" xr:uid="{A78E2F8F-FD47-B542-8DFC-83B636479563}"/>
+    <hyperlink ref="I255" r:id="rId114" xr:uid="{A78E2F8F-FD47-B542-8DFC-83B636479563}"/>
     <hyperlink ref="I232" r:id="rId115" xr:uid="{41FFAA8D-5342-3645-8628-A7444385DE3D}"/>
     <hyperlink ref="I239" r:id="rId116" xr:uid="{35C2ECAF-C6CF-D94A-842F-65238D0F5E26}"/>
-    <hyperlink ref="I250" r:id="rId117" xr:uid="{FEE022EB-39CE-B040-9EC8-5C63465C49E5}"/>
-    <hyperlink ref="I252" r:id="rId118" xr:uid="{7155379E-BED3-1147-BBDD-FB9194E40941}"/>
-    <hyperlink ref="I249" r:id="rId119" xr:uid="{00529813-289E-FA45-B3DB-F9865DF54C47}"/>
-    <hyperlink ref="I254" r:id="rId120" xr:uid="{2255D6D5-3A4B-0642-B46C-FA77C6A01755}"/>
+    <hyperlink ref="I253" r:id="rId117" xr:uid="{FEE022EB-39CE-B040-9EC8-5C63465C49E5}"/>
+    <hyperlink ref="I264" r:id="rId118" xr:uid="{7155379E-BED3-1147-BBDD-FB9194E40941}"/>
+    <hyperlink ref="I254" r:id="rId119" xr:uid="{00529813-289E-FA45-B3DB-F9865DF54C47}"/>
+    <hyperlink ref="I267" r:id="rId120" xr:uid="{2255D6D5-3A4B-0642-B46C-FA77C6A01755}"/>
     <hyperlink ref="I98" r:id="rId121" xr:uid="{4864490C-B08B-874E-8DC0-BED3D27255A4}"/>
     <hyperlink ref="I212" r:id="rId122" xr:uid="{C3A26F2A-D78C-C341-99A8-BDDBC3A3E5FA}"/>
     <hyperlink ref="I123" r:id="rId123" xr:uid="{490CCE9D-2833-D641-AF49-60151F68E2CB}"/>
     <hyperlink ref="I189" r:id="rId124" xr:uid="{6F1FD4DF-2CAA-6542-BC51-D03026E648CA}"/>
     <hyperlink ref="I193" r:id="rId125" xr:uid="{B1C191E7-427D-FA49-8F8D-71930E3C43EC}"/>
-    <hyperlink ref="I248" r:id="rId126" xr:uid="{5DF6792E-CB67-9849-ACAE-610E8193CAE4}"/>
+    <hyperlink ref="I251" r:id="rId126" xr:uid="{5DF6792E-CB67-9849-ACAE-610E8193CAE4}"/>
     <hyperlink ref="I4" r:id="rId127" xr:uid="{7C87F529-8464-7745-BDC3-50EE8227E343}"/>
     <hyperlink ref="I10" r:id="rId128" xr:uid="{DAEA7C5D-2130-AB47-8B55-7BC3E37A4FAD}"/>
     <hyperlink ref="I15" r:id="rId129" xr:uid="{03F641E5-A386-FA43-BAF9-1DDE2C2A75AA}"/>
@@ -12123,6 +12679,18 @@
     <hyperlink ref="I244" r:id="rId223" xr:uid="{4718DD3A-DAE8-0645-9778-33FF97C62CCD}"/>
     <hyperlink ref="I245" r:id="rId224" xr:uid="{423B43DB-2534-1D44-B8DB-16755262F54D}"/>
     <hyperlink ref="I246" r:id="rId225" xr:uid="{B96CED60-11E5-594A-832B-B4066C2FA798}"/>
+    <hyperlink ref="I248" r:id="rId226" xr:uid="{F739BEBB-E25F-6245-9C7C-407CBD7DA2FB}"/>
+    <hyperlink ref="I249" r:id="rId227" xr:uid="{AA667C8E-16C6-9B48-8EDA-A4046337F019}"/>
+    <hyperlink ref="I250" r:id="rId228" xr:uid="{EFE62CD2-6CCD-7F40-A656-575813D0986F}"/>
+    <hyperlink ref="I252" r:id="rId229" xr:uid="{8218375E-9636-3D48-97B2-4623A43DAC57}"/>
+    <hyperlink ref="I256" r:id="rId230" xr:uid="{7108767D-3C6D-D348-B075-E758B6BE1B0F}"/>
+    <hyperlink ref="I257" r:id="rId231" xr:uid="{13B9F8D2-A1CE-124A-B012-06F6BBD369EA}"/>
+    <hyperlink ref="I258" r:id="rId232" xr:uid="{F41772B5-0009-7E4A-96F6-7875EC309E5B}"/>
+    <hyperlink ref="I259" r:id="rId233" xr:uid="{013E15D1-8059-A54B-85D5-ECEBEE793B62}"/>
+    <hyperlink ref="I260" r:id="rId234" xr:uid="{45EB9BE3-D240-DE49-8A2D-B602C8E0E516}"/>
+    <hyperlink ref="I261" r:id="rId235" xr:uid="{D1EE79FD-9675-3940-AE80-18FAA7CBD764}"/>
+    <hyperlink ref="I262" r:id="rId236" xr:uid="{AF64295E-07EB-134F-AC48-FD82582F9584}"/>
+    <hyperlink ref="I263" r:id="rId237" xr:uid="{0D07A03D-DAFB-D943-9A8C-35CF907FA144}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/LeetCode刷题记录.xlsx
+++ b/LeetCode刷题记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wenbin/Documents/Leetcode_and_Cpp/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE5C6D6-70A7-754A-A420-911C0D72EDF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE282C0-8B18-7646-A6D2-CE046A8BF7FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" xr2:uid="{3D6822DC-35D2-5346-BB48-DC23B3DD3301}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2090" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2109" uniqueCount="1144">
   <si>
     <t>题号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1132,9 +1132,6 @@
     <t>1. 动态规划。公式：dp[i] = max(dp[j])+1，dp数组中存储从开始到当前数字i并且包括数字i能形成的LIS长度。
 2. 动态规划+二分查找。没看</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/longest-increasing-subsequence</t>
   </si>
   <si>
     <t>两数相加</t>
@@ -1526,9 +1523,6 @@
       <t>并查集</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://leetcode-cn.com/problems/number-of-islands/</t>
   </si>
   <si>
     <t>解码方法</t>
@@ -5138,6 +5132,22 @@
   </si>
   <si>
     <t>.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/number-of-islands/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√ 堆才是最稳的方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>√√√</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-increasing-subsequence</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -5698,8 +5708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA52792F-EFCF-8A4A-B829-88BCBEFF0CD1}">
   <dimension ref="A1:P267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G140" zoomScale="124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O141" sqref="O141"/>
+    <sheetView tabSelected="1" topLeftCell="D179" zoomScale="124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O188" sqref="O188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5820,7 +5830,7 @@
         <v>10</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="34">
@@ -5828,7 +5838,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>40</v>
@@ -5837,23 +5847,23 @@
         <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="L4" s="6">
         <v>9</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="N4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="6"/>
       <c r="P4" s="2" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="51">
@@ -5920,7 +5930,7 @@
         <v>9</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="P6" s="8" t="s">
         <v>93</v>
@@ -6030,7 +6040,7 @@
         <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>28</v>
@@ -6039,23 +6049,23 @@
         <v>7</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="L10" s="6">
         <v>27</v>
       </c>
       <c r="M10" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="N10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O10" s="6"/>
       <c r="P10" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="119">
@@ -6063,7 +6073,7 @@
         <v>38</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>92</v>
@@ -6081,7 +6091,7 @@
         <v>38</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>10</v>
@@ -6121,7 +6131,7 @@
       </c>
       <c r="O12" s="6"/>
       <c r="P12" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="51">
@@ -6156,7 +6166,7 @@
         <v>10</v>
       </c>
       <c r="P13" s="8" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="34">
@@ -6197,25 +6207,25 @@
         <v>67</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="L15" s="6">
         <v>67</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="N15" s="6" t="s">
         <v>9</v>
@@ -6224,7 +6234,7 @@
         <v>10</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="34">
@@ -6256,7 +6266,7 @@
         <v>9</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="P16" s="8" t="s">
         <v>105</v>
@@ -6300,7 +6310,7 @@
         <v>83</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>13</v>
@@ -6309,23 +6319,23 @@
         <v>7</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="L18" s="6">
         <v>83</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="N18" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="2" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="68">
@@ -6368,7 +6378,7 @@
         <v>100</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>84</v>
@@ -6377,23 +6387,23 @@
         <v>7</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="L20" s="6">
         <v>100</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="N20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="2" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="68">
@@ -6410,7 +6420,7 @@
         <v>7</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>88</v>
@@ -6469,32 +6479,32 @@
         <v>107</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L23" s="6">
         <v>107</v>
       </c>
       <c r="M23" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="N23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="2" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="34">
@@ -6537,7 +6547,7 @@
         <v>110</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>84</v>
@@ -6546,23 +6556,23 @@
         <v>7</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="L25" s="6">
         <v>110</v>
       </c>
       <c r="M25" s="6" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="N25" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="2" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="51">
@@ -6570,32 +6580,32 @@
         <v>111</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="L26" s="6">
         <v>111</v>
       </c>
       <c r="M26" s="6" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="N26" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="51">
@@ -6603,7 +6613,7 @@
         <v>112</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>84</v>
@@ -6612,23 +6622,23 @@
         <v>7</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L27" s="6">
         <v>112</v>
       </c>
       <c r="M27" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="N27" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="2" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="68">
@@ -6902,7 +6912,7 @@
         <v>169</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>113</v>
@@ -6920,7 +6930,7 @@
         <v>169</v>
       </c>
       <c r="M36" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="N36" s="6" t="s">
         <v>10</v>
@@ -6944,7 +6954,7 @@
         <v>7</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>173</v>
@@ -7030,7 +7040,7 @@
         <v>10</v>
       </c>
       <c r="P39" s="8" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="34">
@@ -7166,7 +7176,7 @@
         <v>9</v>
       </c>
       <c r="P43" s="8" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="34">
@@ -7174,7 +7184,7 @@
         <v>203</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>13</v>
@@ -7183,23 +7193,23 @@
         <v>7</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="L44" s="6">
         <v>203</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="N44" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="2" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="34">
@@ -7234,7 +7244,7 @@
         <v>10</v>
       </c>
       <c r="P45" s="8" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="34">
@@ -7284,10 +7294,10 @@
         <v>7</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="L47" s="6">
         <v>217</v>
@@ -7308,7 +7318,7 @@
         <v>225</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>86</v>
@@ -7317,23 +7327,23 @@
         <v>7</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="L48" s="6">
         <v>225</v>
       </c>
       <c r="M48" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="N48" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O48" s="6"/>
       <c r="P48" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="17">
@@ -7341,32 +7351,32 @@
         <v>226</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D49" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="L49" s="6">
         <v>226</v>
       </c>
       <c r="M49" s="6" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="N49" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O49" s="6"/>
       <c r="P49" s="2" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="34">
@@ -7374,32 +7384,32 @@
         <v>231</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D50" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="L50" s="6">
         <v>231</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="N50" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="2" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="51">
@@ -7407,7 +7417,7 @@
         <v>232</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>86</v>
@@ -7416,23 +7426,23 @@
         <v>7</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="L51" s="6">
         <v>232</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="N51" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O51" s="6"/>
       <c r="P51" s="2" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="34">
@@ -7475,32 +7485,32 @@
         <v>235</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D53" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="L53" s="6">
         <v>235</v>
       </c>
       <c r="M53" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N53" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O53" s="6"/>
       <c r="P53" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="29" customHeight="1">
@@ -7574,7 +7584,7 @@
         <v>243</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>65</v>
@@ -7583,23 +7593,23 @@
         <v>7</v>
       </c>
       <c r="E56" s="6" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="L56" s="6">
         <v>243</v>
       </c>
       <c r="M56" s="6" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="N56" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O56" s="6"/>
       <c r="P56" s="2" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="51">
@@ -7607,7 +7617,7 @@
         <v>246</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>44</v>
@@ -7616,23 +7626,23 @@
         <v>7</v>
       </c>
       <c r="E57" s="6" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="L57" s="6">
         <v>246</v>
       </c>
       <c r="M57" s="6" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N57" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O57" s="6"/>
       <c r="P57" s="2" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="34">
@@ -7640,32 +7650,32 @@
         <v>252</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D58" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="L58" s="6">
         <v>252</v>
       </c>
       <c r="M58" s="6" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N58" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O58" s="6"/>
       <c r="P58" s="2" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="34">
@@ -7673,7 +7683,7 @@
         <v>258</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>40</v>
@@ -7682,16 +7692,16 @@
         <v>7</v>
       </c>
       <c r="E59" s="6" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="L59" s="6">
         <v>258</v>
       </c>
       <c r="M59" s="6" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="N59" s="9" t="s">
         <v>80</v>
@@ -7700,7 +7710,7 @@
         <v>9</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="34">
@@ -7708,7 +7718,7 @@
         <v>263</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>40</v>
@@ -7717,16 +7727,16 @@
         <v>7</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="L60" s="6">
         <v>263</v>
       </c>
       <c r="M60" s="6" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="N60" s="9" t="s">
         <v>80</v>
@@ -7735,7 +7745,7 @@
         <v>10</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="34">
@@ -7844,25 +7854,25 @@
         <v>292</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D64" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E64" s="6" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="L64" s="6">
         <v>292</v>
       </c>
       <c r="M64" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="N64" s="6" t="s">
         <v>9</v>
@@ -7871,7 +7881,7 @@
         <v>10</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="51">
@@ -7947,32 +7957,32 @@
         <v>346</v>
       </c>
       <c r="B67" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="C67" s="6" t="s">
         <v>727</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>729</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E67" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="F67" s="6" t="s">
         <v>728</v>
-      </c>
-      <c r="F67" s="6" t="s">
-        <v>730</v>
       </c>
       <c r="L67" s="6">
         <v>346</v>
       </c>
       <c r="M67" s="6" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="N67" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O67" s="6"/>
       <c r="P67" s="2" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="34">
@@ -8081,32 +8091,32 @@
         <v>392</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="L71" s="6">
         <v>392</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="N71" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O71" s="6"/>
       <c r="P71" s="2" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="68">
@@ -8145,7 +8155,7 @@
         <v>415</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>92</v>
@@ -8154,16 +8164,16 @@
         <v>7</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="L73" s="1">
         <v>415</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="N73" s="5" t="s">
         <v>9</v>
@@ -8172,7 +8182,7 @@
         <v>10</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="34">
@@ -8180,25 +8190,25 @@
         <v>437</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="L74" s="1">
         <v>437</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>9</v>
@@ -8207,7 +8217,7 @@
         <v>10</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="68">
@@ -8215,7 +8225,7 @@
         <v>448</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>65</v>
@@ -8224,16 +8234,16 @@
         <v>7</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="L75" s="1">
         <v>448</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="N75" s="3" t="s">
         <v>80</v>
@@ -8242,7 +8252,7 @@
         <v>10</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="51">
@@ -8250,7 +8260,7 @@
         <v>461</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>142</v>
@@ -8259,16 +8269,16 @@
         <v>7</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="L76" s="1">
         <v>461</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>9</v>
@@ -8277,7 +8287,7 @@
         <v>10</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="34">
@@ -8285,7 +8295,7 @@
         <v>557</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>92</v>
@@ -8294,22 +8304,22 @@
         <v>7</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="L77" s="1">
         <v>557</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="N77" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="51">
@@ -8317,7 +8327,7 @@
         <v>581</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>65</v>
@@ -8326,22 +8336,22 @@
         <v>7</v>
       </c>
       <c r="E78" s="1" t="s">
+        <v>756</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>760</v>
       </c>
       <c r="L78" s="1">
         <v>581</v>
       </c>
       <c r="M78" s="1" t="s">
+        <v>755</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P78" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>759</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="85">
@@ -8349,31 +8359,31 @@
         <v>617</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="L79" s="1">
         <v>617</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="N79" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="85">
@@ -8381,25 +8391,25 @@
         <v>687</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="L80" s="1">
         <v>687</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="N80" s="5" t="s">
         <v>9</v>
@@ -8408,7 +8418,7 @@
         <v>10</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="51">
@@ -8416,7 +8426,7 @@
         <v>728</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>40</v>
@@ -8425,22 +8435,22 @@
         <v>7</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="L81" s="1">
         <v>728</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P81" s="1" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="34">
@@ -8448,31 +8458,31 @@
         <v>933</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="L82" s="1">
         <v>933</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="N82" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="34">
@@ -8480,31 +8490,31 @@
         <v>997</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="L83" s="1">
         <v>997</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="17">
@@ -8512,36 +8522,36 @@
         <v>1042</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="L84" s="1">
         <v>1042</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="17">
       <c r="C85" s="1" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="P85" s="2"/>
     </row>
@@ -8551,32 +8561,32 @@
         <v>2</v>
       </c>
       <c r="B90" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>237</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>238</v>
       </c>
       <c r="D90" s="6" t="s">
         <v>220</v>
       </c>
       <c r="E90" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L90" s="6">
         <v>2</v>
       </c>
       <c r="M90" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="N90" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O90" s="6"/>
       <c r="P90" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="51">
@@ -8652,31 +8662,31 @@
         <v>8</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E93" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>352</v>
-      </c>
-      <c r="F93" s="1" t="s">
-        <v>354</v>
       </c>
       <c r="L93" s="1">
         <v>8</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="85">
@@ -8684,25 +8694,25 @@
         <v>11</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>274</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>275</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E94" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="L94" s="1">
         <v>11</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>9</v>
@@ -8711,7 +8721,7 @@
         <v>9</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="68">
@@ -8719,7 +8729,7 @@
         <v>15</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C95" s="7" t="s">
         <v>28</v>
@@ -8728,16 +8738,16 @@
         <v>220</v>
       </c>
       <c r="E95" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F95" s="6" t="s">
         <v>247</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>248</v>
       </c>
       <c r="L95" s="7">
         <v>15</v>
       </c>
       <c r="M95" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="N95" s="6" t="s">
         <v>80</v>
@@ -8746,7 +8756,7 @@
         <v>10</v>
       </c>
       <c r="P95" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="96" spans="1:16" s="16" customFormat="1" ht="68">
@@ -8754,7 +8764,7 @@
         <v>16</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C96" s="18" t="s">
         <v>28</v>
@@ -8763,16 +8773,16 @@
         <v>220</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="L96" s="17">
         <v>16</v>
       </c>
       <c r="M96" s="18" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="N96" s="10" t="s">
         <v>9</v>
@@ -8781,7 +8791,7 @@
         <v>10</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="34">
@@ -8789,31 +8799,31 @@
         <v>17</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="L97" s="1">
         <v>17</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="85">
@@ -8821,25 +8831,25 @@
         <v>18</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E98" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>605</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>607</v>
       </c>
       <c r="L98" s="1">
         <v>18</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="N98" s="5" t="s">
         <v>9</v>
@@ -8848,7 +8858,7 @@
         <v>10</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="85">
@@ -8856,25 +8866,25 @@
         <v>19</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="L99" s="1">
         <v>19</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="N99" s="1" t="s">
         <v>9</v>
@@ -8883,7 +8893,7 @@
         <v>10</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="34">
@@ -8891,31 +8901,31 @@
         <v>22</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L100" s="1">
         <v>22</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="N100" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="68">
@@ -8923,7 +8933,7 @@
         <v>24</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>13</v>
@@ -8932,22 +8942,22 @@
         <v>220</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="L101" s="1">
         <v>24</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="N101" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="68">
@@ -8955,31 +8965,31 @@
         <v>33</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L102" s="1">
         <v>33</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="N102" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="34">
@@ -8987,31 +8997,31 @@
         <v>34</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="L103" s="3">
         <v>34</v>
       </c>
       <c r="M103" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N103" s="5" t="s">
         <v>80</v>
       </c>
       <c r="O103" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="51">
@@ -9019,7 +9029,7 @@
         <v>36</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>38</v>
@@ -9028,22 +9038,22 @@
         <v>220</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L104" s="1">
         <v>36</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="51">
@@ -9051,25 +9061,25 @@
         <v>46</v>
       </c>
       <c r="B105" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="C105" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>220</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="L105" s="7">
         <v>46</v>
       </c>
       <c r="M105" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="N105" s="6" t="s">
         <v>80</v>
@@ -9078,7 +9088,7 @@
         <v>10</v>
       </c>
       <c r="P105" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="34">
@@ -9086,7 +9096,7 @@
         <v>48</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C106" s="5" t="s">
         <v>65</v>
@@ -9095,16 +9105,16 @@
         <v>220</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="L106" s="3">
         <v>48</v>
       </c>
       <c r="M106" s="3" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="N106" s="1" t="s">
         <v>9</v>
@@ -9113,7 +9123,7 @@
         <v>10</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="34">
@@ -9121,7 +9131,7 @@
         <v>49</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>38</v>
@@ -9130,22 +9140,22 @@
         <v>220</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="L107" s="1">
         <v>49</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="N107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="34">
@@ -9153,34 +9163,34 @@
         <v>50</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E108" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F108" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>431</v>
       </c>
       <c r="L108" s="3">
         <v>50</v>
       </c>
       <c r="M108" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="N108" s="3" t="s">
         <v>80</v>
       </c>
       <c r="O108" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="68">
@@ -9188,7 +9198,7 @@
         <v>54</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>65</v>
@@ -9197,23 +9207,23 @@
         <v>220</v>
       </c>
       <c r="E109" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="L109" s="6">
         <v>54</v>
       </c>
       <c r="M109" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="N109" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O109" s="6"/>
       <c r="P109" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="51">
@@ -9221,31 +9231,31 @@
         <v>55</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="L110" s="1">
         <v>55</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="N110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="68">
@@ -9253,31 +9263,31 @@
         <v>56</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L111" s="1">
         <v>56</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="N111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="51">
@@ -9285,7 +9295,7 @@
         <v>59</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>65</v>
@@ -9294,22 +9304,22 @@
         <v>220</v>
       </c>
       <c r="E112" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>799</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>801</v>
       </c>
       <c r="L112" s="1">
         <v>59</v>
       </c>
       <c r="M112" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="N112" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P112" s="2" t="s">
         <v>798</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P112" s="2" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="113" spans="1:16" ht="51">
@@ -9317,7 +9327,7 @@
         <v>61</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>74</v>
@@ -9326,22 +9336,22 @@
         <v>220</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="L113" s="1">
         <v>61</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="N113" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="68">
@@ -9349,7 +9359,7 @@
         <v>62</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>21</v>
@@ -9358,22 +9368,22 @@
         <v>220</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="L114" s="1">
         <v>62</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="N114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="34">
@@ -9381,7 +9391,7 @@
         <v>63</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>21</v>
@@ -9390,22 +9400,22 @@
         <v>220</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="L115" s="1">
         <v>63</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="N115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="116" spans="1:16" ht="34">
@@ -9413,7 +9423,7 @@
         <v>64</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>21</v>
@@ -9422,22 +9432,22 @@
         <v>220</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="L116" s="1">
         <v>64</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="N116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="117" spans="1:16" ht="68">
@@ -9445,7 +9455,7 @@
         <v>73</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>65</v>
@@ -9454,16 +9464,16 @@
         <v>220</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="L117" s="1">
         <v>73</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="N117" s="1" t="s">
         <v>9</v>
@@ -9472,7 +9482,7 @@
         <v>10</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="118" spans="1:16" ht="68">
@@ -9480,25 +9490,25 @@
         <v>75</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L118" s="1">
         <v>75</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="N118" s="1" t="s">
         <v>9</v>
@@ -9507,7 +9517,7 @@
         <v>9</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="119" spans="1:16" ht="34">
@@ -9515,31 +9525,31 @@
         <v>78</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F119" s="14" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="L119" s="1">
         <v>78</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="N119" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="120" spans="1:16" ht="34">
@@ -9547,31 +9557,31 @@
         <v>79</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="L120" s="1">
         <v>79</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="N120" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="51">
@@ -9579,7 +9589,7 @@
         <v>82</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>13</v>
@@ -9588,22 +9598,22 @@
         <v>220</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="L121" s="1">
         <v>82</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="N121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="122" spans="1:16" ht="51">
@@ -9611,7 +9621,7 @@
         <v>86</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>74</v>
@@ -9620,16 +9630,16 @@
         <v>220</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="L122" s="1">
         <v>86</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="N122" s="1" t="s">
         <v>9</v>
@@ -9638,7 +9648,7 @@
         <v>10</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="68">
@@ -9646,34 +9656,34 @@
         <v>89</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E123" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>618</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>620</v>
       </c>
       <c r="L123" s="1">
         <v>89</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="N123" s="5" t="s">
         <v>80</v>
       </c>
       <c r="O123" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="85">
@@ -9681,7 +9691,7 @@
         <v>91</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>21</v>
@@ -9690,22 +9700,22 @@
         <v>220</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L124" s="1">
         <v>91</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N124" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="125" spans="1:16" ht="85">
@@ -9713,25 +9723,25 @@
         <v>94</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L125" s="1">
         <v>94</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="N125" s="1" t="s">
         <v>9</v>
@@ -9740,7 +9750,7 @@
         <v>10</v>
       </c>
       <c r="P125" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="102">
@@ -9748,34 +9758,34 @@
         <v>96</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="F126" s="19" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="L126" s="1">
         <v>96</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="N126" s="20" t="s">
         <v>80</v>
       </c>
       <c r="O126" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="127" spans="1:16" ht="119">
@@ -9783,7 +9793,7 @@
         <v>98</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>84</v>
@@ -9792,16 +9802,16 @@
         <v>220</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L127" s="3">
         <v>98</v>
       </c>
       <c r="M127" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="N127" s="5" t="s">
         <v>80</v>
@@ -9810,7 +9820,7 @@
         <v>10</v>
       </c>
       <c r="P127" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="128" spans="1:16" ht="51">
@@ -9818,31 +9828,31 @@
         <v>102</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L128" s="1">
         <v>102</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="N128" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="51">
@@ -9850,31 +9860,31 @@
         <v>103</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="L129" s="1">
         <v>103</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="N129" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P129" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="51">
@@ -9882,31 +9892,31 @@
         <v>105</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="L130" s="1">
         <v>105</v>
       </c>
       <c r="M130" s="16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="N130" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P130" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="102">
@@ -9914,31 +9924,31 @@
         <v>109</v>
       </c>
       <c r="B131" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="L131" s="1">
         <v>109</v>
       </c>
       <c r="M131" s="16" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="N131" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P131" s="2" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="68">
@@ -9946,31 +9956,31 @@
         <v>113</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="L132" s="1">
         <v>113</v>
       </c>
       <c r="M132" s="16" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="N132" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P132" s="2" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="85">
@@ -9978,7 +9988,7 @@
         <v>114</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>84</v>
@@ -9987,22 +9997,22 @@
         <v>220</v>
       </c>
       <c r="E133" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>555</v>
-      </c>
-      <c r="F133" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="L133" s="1">
         <v>114</v>
       </c>
       <c r="M133" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="N133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P133" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="N133" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P133" s="2" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="102">
@@ -10010,31 +10020,31 @@
         <v>116</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="L134" s="1">
         <v>116</v>
       </c>
       <c r="M134" s="1" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="N134" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P134" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="85">
@@ -10042,31 +10052,31 @@
         <v>127</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D135" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="L135" s="1">
         <v>127</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="N135" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P135" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="68">
@@ -10074,31 +10084,31 @@
         <v>129</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="L136" s="1">
         <v>129</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="N136" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P136" s="2" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="68">
@@ -10106,25 +10116,25 @@
         <v>130</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="L137" s="1">
         <v>130</v>
       </c>
       <c r="M137" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="N137" s="1" t="s">
         <v>9</v>
@@ -10133,7 +10143,7 @@
         <v>10</v>
       </c>
       <c r="P137" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="34">
@@ -10141,31 +10151,31 @@
         <v>131</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="L138" s="1">
         <v>131</v>
       </c>
       <c r="M138" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="N138" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P138" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="51">
@@ -10173,34 +10183,34 @@
         <v>133</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="L139" s="1">
         <v>133</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="N139" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O139" s="1" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="P139" s="2" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="68">
@@ -10208,34 +10218,34 @@
         <v>134</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E140" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="F140" s="1" t="s">
-        <v>469</v>
       </c>
       <c r="L140" s="1">
         <v>134</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="N140" s="1" t="s">
         <v>9</v>
       </c>
       <c r="O140" s="1" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="P140" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="51">
@@ -10243,7 +10253,7 @@
         <v>137</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>142</v>
@@ -10252,25 +10262,25 @@
         <v>220</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="L141" s="1">
         <v>137</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="N141" s="3" t="s">
         <v>80</v>
       </c>
       <c r="O141" s="1" t="s">
-        <v>1141</v>
+        <v>10</v>
       </c>
       <c r="P141" s="2" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="51">
@@ -10278,31 +10288,31 @@
         <v>138</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D142" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E142" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>367</v>
-      </c>
-      <c r="F142" s="1" t="s">
-        <v>369</v>
       </c>
       <c r="L142" s="1">
         <v>138</v>
       </c>
       <c r="M142" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="N142" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P142" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="85">
@@ -10310,7 +10320,7 @@
         <v>139</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>21</v>
@@ -10319,22 +10329,22 @@
         <v>220</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="L143" s="1">
         <v>139</v>
       </c>
       <c r="M143" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="N143" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P143" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="51">
@@ -10342,31 +10352,34 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D144" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="L144" s="1">
         <v>142</v>
       </c>
       <c r="M144" s="1" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N144" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="O144" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="P144" s="2" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="145" spans="1:16" ht="34">
@@ -10374,7 +10387,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>84</v>
@@ -10383,22 +10396,22 @@
         <v>220</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F145" s="6" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="L145" s="1">
         <v>144</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="N145" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P145" s="2" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="51">
@@ -10418,7 +10431,7 @@
         <v>226</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="L146" s="9">
         <v>146</v>
@@ -10429,7 +10442,9 @@
       <c r="N146" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O146" s="6"/>
+      <c r="O146" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="P146" s="8" t="s">
         <v>227</v>
       </c>
@@ -10439,31 +10454,34 @@
         <v>148</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F147" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="L147" s="7">
         <v>148</v>
       </c>
       <c r="M147" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N147" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="O147" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="P147" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="17">
@@ -10471,31 +10489,31 @@
         <v>150</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D148" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F148" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="L148" s="1">
         <v>150</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="N148" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P148" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="149" spans="1:16" ht="51">
@@ -10503,7 +10521,7 @@
         <v>152</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>33</v>
@@ -10512,22 +10530,25 @@
         <v>220</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="L149" s="1">
         <v>152</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="N149" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="O149" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="P149" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="150" spans="1:16" ht="102">
@@ -10535,31 +10556,31 @@
         <v>159</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E150" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>859</v>
       </c>
       <c r="L150" s="1">
         <v>159</v>
       </c>
       <c r="M150" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P150" s="2" t="s">
         <v>856</v>
-      </c>
-      <c r="N150" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P150" s="2" t="s">
-        <v>858</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="51">
@@ -10567,31 +10588,31 @@
         <v>162</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D151" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="L151" s="1">
         <v>162</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="N151" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P151" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="102">
@@ -10599,31 +10620,31 @@
         <v>173</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="L152" s="1">
         <v>173</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="N152" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P152" s="2" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="153" spans="1:16" ht="34">
@@ -10631,32 +10652,32 @@
         <v>179</v>
       </c>
       <c r="B153" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C153" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="C153" s="6" t="s">
-        <v>253</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>220</v>
       </c>
       <c r="E153" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="F153" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="L153" s="6">
         <v>179</v>
       </c>
       <c r="M153" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="N153" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O153" s="6"/>
       <c r="P153" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="34">
@@ -10664,32 +10685,32 @@
         <v>199</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D154" s="6" t="s">
         <v>220</v>
       </c>
       <c r="E154" s="6" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="F154" s="21" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="L154" s="6">
         <v>199</v>
       </c>
       <c r="M154" s="6" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="N154" s="6" t="s">
         <v>10</v>
       </c>
       <c r="O154" s="6"/>
       <c r="P154" s="2" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="155" spans="1:16" ht="68">
@@ -10697,31 +10718,34 @@
         <v>200</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D155" s="13" t="s">
         <v>220</v>
       </c>
       <c r="E155" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="L155" s="3">
         <v>200</v>
       </c>
       <c r="M155" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="N155" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="O155" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="P155" s="2" t="s">
-        <v>287</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="156" spans="1:16" s="22" customFormat="1" ht="102">
@@ -10729,7 +10753,7 @@
         <v>201</v>
       </c>
       <c r="B156" s="22" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C156" s="22" t="s">
         <v>142</v>
@@ -10738,22 +10762,25 @@
         <v>220</v>
       </c>
       <c r="E156" s="22" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="L156" s="22">
         <v>201</v>
       </c>
       <c r="M156" s="22" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="N156" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="O156" s="22" t="s">
+        <v>9</v>
+      </c>
       <c r="P156" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="157" spans="1:16" ht="34">
@@ -10761,31 +10788,34 @@
         <v>207</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L157" s="1">
         <v>207</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="N157" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="O157" s="1" t="s">
+        <v>1134</v>
+      </c>
       <c r="P157" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="158" spans="1:16" ht="34">
@@ -10793,31 +10823,31 @@
         <v>208</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="L158" s="1">
         <v>208</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="N158" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P158" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="159" spans="1:16" ht="34">
@@ -10825,28 +10855,28 @@
         <v>210</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="L159" s="1">
         <v>210</v>
       </c>
       <c r="M159" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P159" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="N159" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P159" s="2" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="160" spans="1:16" ht="51">
@@ -10854,31 +10884,31 @@
         <v>211</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="L160" s="1">
         <v>211</v>
       </c>
       <c r="M160" s="1" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="N160" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P160" s="2" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="161" spans="1:16" ht="85">
@@ -10886,7 +10916,7 @@
         <v>213</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="C161" s="1" t="s">
         <v>21</v>
@@ -10895,22 +10925,25 @@
         <v>220</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="L161" s="1">
         <v>213</v>
       </c>
       <c r="M161" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="N161" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="O161" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="P161" s="2" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="162" spans="1:16" ht="85">
@@ -10918,31 +10951,34 @@
         <v>215</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E162" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>281</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="L162" s="1">
         <v>215</v>
       </c>
       <c r="M162" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N162" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="O162" s="1" t="s">
+        <v>1141</v>
+      </c>
       <c r="P162" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="163" spans="1:16" ht="51">
@@ -10950,31 +10986,34 @@
         <v>220</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="L163" s="1">
         <v>220</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="N163" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="O163" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="P163" s="2" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="164" spans="1:16" ht="119">
@@ -10982,7 +11021,7 @@
         <v>227</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C164" s="1" t="s">
         <v>92</v>
@@ -10991,22 +11030,25 @@
         <v>220</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L164" s="1">
         <v>227</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N164" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="O164" s="1" t="s">
+        <v>1142</v>
+      </c>
       <c r="P164" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="165" spans="1:16" ht="34">
@@ -11014,31 +11056,34 @@
         <v>230</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L165" s="3">
         <v>230</v>
       </c>
       <c r="M165" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="N165" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="O165" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="P165" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="166" spans="1:16" ht="51">
@@ -11046,31 +11091,31 @@
         <v>236</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D166" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E166" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>334</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="L166" s="1">
         <v>236</v>
       </c>
       <c r="M166" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P166" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="N166" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P166" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="167" spans="1:16" ht="34">
@@ -11078,7 +11123,7 @@
         <v>238</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>65</v>
@@ -11087,22 +11132,25 @@
         <v>220</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="L167" s="1">
         <v>238</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="N167" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="O167" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="P167" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="168" spans="1:16" ht="160">
@@ -11110,31 +11158,34 @@
         <v>240</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F168" s="15" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="L168" s="1">
         <v>240</v>
       </c>
       <c r="M168" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N168" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
+      </c>
+      <c r="O168" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="P168" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169" spans="1:16" ht="51">
@@ -11142,31 +11193,34 @@
         <v>241</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="L169" s="1">
         <v>241</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="N169" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="O169" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="P169" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="170" spans="1:16" ht="68">
@@ -11174,32 +11228,32 @@
         <v>244</v>
       </c>
       <c r="B170" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>891</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>893</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E170" s="1" t="s">
+        <v>890</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>892</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>894</v>
       </c>
       <c r="L170" s="1">
         <v>244</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="N170" s="16" t="s">
         <v>10</v>
       </c>
       <c r="O170" s="22"/>
       <c r="P170" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
     </row>
     <row r="171" spans="1:16" ht="51">
@@ -11207,32 +11261,32 @@
         <v>247</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="L171" s="1">
         <v>247</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="N171" s="16" t="s">
         <v>10</v>
       </c>
       <c r="O171" s="22"/>
       <c r="P171" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="172" spans="1:16" ht="34">
@@ -11240,7 +11294,7 @@
         <v>251</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>225</v>
@@ -11249,22 +11303,22 @@
         <v>220</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="L172" s="1">
         <v>251</v>
       </c>
       <c r="M172" s="1" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="N172" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P172" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="173" spans="1:16" ht="68">
@@ -11272,31 +11326,31 @@
         <v>253</v>
       </c>
       <c r="B173" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>441</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="L173" s="1">
         <v>253</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="N173" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P173" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="174" spans="1:16" ht="136">
@@ -11304,7 +11358,7 @@
         <v>260</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>142</v>
@@ -11313,22 +11367,25 @@
         <v>220</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="L174" s="1">
         <v>260</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="N174" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="O174" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="P174" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="175" spans="1:16" ht="92" customHeight="1">
@@ -11336,31 +11393,31 @@
         <v>261</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="L175" s="1">
         <v>261</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="N175" s="5" t="s">
         <v>9</v>
       </c>
       <c r="P175" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="176" spans="1:16" ht="92" customHeight="1">
@@ -11368,31 +11425,34 @@
         <v>264</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F176" s="16" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="L176" s="1">
         <v>264</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="N176" s="5" t="s">
         <v>80</v>
       </c>
+      <c r="O176" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="P176" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
     </row>
     <row r="177" spans="1:16" ht="102">
@@ -11400,7 +11460,7 @@
         <v>274</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>194</v>
@@ -11409,22 +11469,22 @@
         <v>220</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F177" s="16" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="L177" s="1">
         <v>274</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="N177" s="16" t="s">
         <v>10</v>
       </c>
       <c r="P177" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
     </row>
     <row r="178" spans="1:16" ht="102">
@@ -11432,7 +11492,7 @@
         <v>277</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>65</v>
@@ -11441,22 +11501,22 @@
         <v>220</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="L178" s="1">
         <v>277</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="N178" s="3" t="s">
         <v>9</v>
       </c>
       <c r="P178" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="179" spans="1:16" ht="51">
@@ -11464,7 +11524,7 @@
         <v>279</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>21</v>
@@ -11473,22 +11533,25 @@
         <v>220</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F179" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="L179" s="1">
         <v>279</v>
       </c>
       <c r="M179" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="N179" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="O179" s="1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="P179" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="N179" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="P179" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="180" spans="1:16" ht="34">
@@ -11496,31 +11559,31 @@
         <v>280</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F180" s="16" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="L180" s="1">
         <v>280</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="N180" s="16" t="s">
         <v>10</v>
       </c>
       <c r="P180" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="181" spans="1:16" ht="34">
@@ -11528,7 +11591,7 @@
         <v>281</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>225</v>
@@ -11537,22 +11600,22 @@
         <v>220</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="L181" s="1">
         <v>281</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="N181" s="16" t="s">
         <v>10</v>
       </c>
       <c r="P181" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
     </row>
     <row r="182" spans="1:16" ht="68">
@@ -11560,7 +11623,7 @@
         <v>284</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>225</v>
@@ -11569,22 +11632,22 @@
         <v>220</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F182" s="16" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="L182" s="1">
         <v>284</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="N182" s="16" t="s">
         <v>10</v>
       </c>
       <c r="P182" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="183" spans="1:16" ht="85">
@@ -11592,31 +11655,31 @@
         <v>285</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F183" s="16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="L183" s="1">
         <v>285</v>
       </c>
       <c r="M183" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="N183" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P183" s="2" t="s">
         <v>533</v>
-      </c>
-      <c r="N183" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="P183" s="2" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="184" spans="1:16" ht="34">
@@ -11624,31 +11687,31 @@
         <v>286</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="L184" s="1">
         <v>286</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="N184" s="5" t="s">
         <v>9</v>
       </c>
       <c r="P184" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="185" spans="1:16" ht="85">
@@ -11656,31 +11719,31 @@
         <v>287</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F185" s="22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="L185" s="1">
         <v>287</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="N185" s="22" t="s">
         <v>10</v>
       </c>
       <c r="P185" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="186" spans="1:16" ht="51">
@@ -11688,31 +11751,31 @@
         <v>288</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F186" s="22" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="L186" s="1">
         <v>288</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="N186" s="22" t="s">
         <v>10</v>
       </c>
       <c r="P186" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="187" spans="1:16" ht="51">
@@ -11720,7 +11783,7 @@
         <v>289</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>65</v>
@@ -11729,22 +11792,22 @@
         <v>220</v>
       </c>
       <c r="E187" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="F187" s="3" t="s">
         <v>433</v>
-      </c>
-      <c r="F187" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="L187" s="1">
         <v>289</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="N187" s="3" t="s">
         <v>9</v>
       </c>
       <c r="P187" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="188" spans="1:16" ht="68">
@@ -11775,9 +11838,11 @@
       <c r="N188" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="O188" s="6"/>
+      <c r="O188" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="P188" s="8" t="s">
-        <v>236</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="189" spans="1:16" ht="119">
@@ -11785,31 +11850,31 @@
         <v>310</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F189" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="L189" s="1">
         <v>310</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="N189" s="5" t="s">
         <v>9</v>
       </c>
       <c r="P189" s="2" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="190" spans="1:16" ht="51">
@@ -11817,31 +11882,31 @@
         <v>313</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F190" s="3" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="L190" s="1">
         <v>313</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="N190" s="5" t="s">
         <v>9</v>
       </c>
       <c r="P190" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="191" spans="1:16" ht="85">
@@ -11849,7 +11914,7 @@
         <v>319</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>40</v>
@@ -11858,22 +11923,22 @@
         <v>220</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F191" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="L191" s="1">
         <v>319</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="N191" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P191" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="192" spans="1:16" ht="51">
@@ -11881,7 +11946,7 @@
         <v>322</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>21</v>
@@ -11890,23 +11955,23 @@
         <v>220</v>
       </c>
       <c r="E192" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="F192" s="6" t="s">
         <v>242</v>
-      </c>
-      <c r="F192" s="6" t="s">
-        <v>243</v>
       </c>
       <c r="L192" s="6">
         <v>322</v>
       </c>
       <c r="M192" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="N192" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O192" s="6"/>
       <c r="P192" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="193" spans="1:16" ht="34">
@@ -11914,28 +11979,28 @@
         <v>323</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F193" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="L193" s="1">
         <v>323</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="N193" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P193" s="2" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="194" spans="1:16" ht="51">
@@ -11943,7 +12008,7 @@
         <v>328</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>13</v>
@@ -11952,22 +12017,22 @@
         <v>220</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="L194" s="1">
         <v>328</v>
       </c>
       <c r="M194" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="N194" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P194" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P194" s="2" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="195" spans="1:16" ht="187">
@@ -11975,31 +12040,31 @@
         <v>332</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E195" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="F195" s="3" t="s">
         <v>944</v>
-      </c>
-      <c r="F195" s="3" t="s">
-        <v>946</v>
       </c>
       <c r="L195" s="1">
         <v>332</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="N195" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P195" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="196" spans="1:16" ht="68">
@@ -12007,28 +12072,28 @@
         <v>334</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F196" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="L196" s="1">
         <v>334</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="N196" s="3" t="s">
         <v>80</v>
       </c>
       <c r="P196" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="197" spans="1:16" ht="51">
@@ -12036,7 +12101,7 @@
         <v>341</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>86</v>
@@ -12045,22 +12110,22 @@
         <v>220</v>
       </c>
       <c r="E197" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="F197" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>491</v>
       </c>
       <c r="L197" s="1">
         <v>341</v>
       </c>
       <c r="M197" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="N197" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P197" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="198" spans="1:16" ht="51">
@@ -12068,31 +12133,31 @@
         <v>347</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L198" s="1">
         <v>347</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="N198" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P198" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="199" spans="1:16" ht="34">
@@ -12100,7 +12165,7 @@
         <v>348</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>225</v>
@@ -12109,22 +12174,22 @@
         <v>220</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="L199" s="1">
         <v>348</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="N199" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P199" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="200" spans="1:16" ht="34">
@@ -12132,31 +12197,31 @@
         <v>353</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="L200" s="1">
         <v>353</v>
       </c>
       <c r="M200" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="N200" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P200" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="201" spans="1:16" ht="102">
@@ -12164,31 +12229,31 @@
         <v>355</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="L201" s="1">
         <v>355</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="N201" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P201" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="202" spans="1:16" ht="34">
@@ -12196,31 +12261,31 @@
         <v>357</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E202" s="1" t="s">
+        <v>956</v>
+      </c>
+      <c r="F202" s="1" t="s">
         <v>958</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>960</v>
       </c>
       <c r="L202" s="1">
         <v>357</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="N202" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P202" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="203" spans="1:16" ht="34">
@@ -12228,7 +12293,7 @@
         <v>372</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>40</v>
@@ -12237,22 +12302,22 @@
         <v>220</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="L203" s="1">
         <v>372</v>
       </c>
       <c r="M203" s="1" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="N203" s="1" t="s">
         <v>80</v>
       </c>
       <c r="P203" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="204" spans="1:16" ht="102">
@@ -12260,32 +12325,32 @@
         <v>378</v>
       </c>
       <c r="B204" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="C204" s="6" t="s">
         <v>260</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>261</v>
       </c>
       <c r="D204" s="6" t="s">
         <v>220</v>
       </c>
       <c r="E204" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="L204" s="6">
         <v>378</v>
       </c>
       <c r="M204" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N204" s="10" t="s">
         <v>9</v>
       </c>
       <c r="O204" s="6"/>
       <c r="P204" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="205" spans="1:16" ht="34">
@@ -12293,28 +12358,28 @@
         <v>380</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="L205" s="1">
         <v>380</v>
       </c>
       <c r="M205" s="1" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="N205" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P205" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="206" spans="1:16" ht="34">
@@ -12322,28 +12387,28 @@
         <v>384</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="L206" s="1">
         <v>384</v>
       </c>
       <c r="M206" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="N206" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P206" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P206" s="2" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="207" spans="1:16" ht="51">
@@ -12351,28 +12416,28 @@
         <v>395</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E207" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F207" s="1" t="s">
         <v>416</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="L207" s="1">
         <v>395</v>
       </c>
       <c r="M207" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="N207" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P207" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="208" spans="1:16" ht="153">
@@ -12380,31 +12445,31 @@
         <v>399</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F208" s="3" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="L208" s="1">
         <v>399</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="N208" s="5" t="s">
         <v>9</v>
       </c>
       <c r="P208" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="209" spans="1:16" ht="102">
@@ -12412,31 +12477,31 @@
         <v>424</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="L209" s="1">
         <v>424</v>
       </c>
       <c r="M209" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="N209" s="22" t="s">
         <v>10</v>
       </c>
       <c r="P209" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="210" spans="1:16" ht="102">
@@ -12444,31 +12509,31 @@
         <v>426</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="L210" s="1">
         <v>426</v>
       </c>
       <c r="M210" s="1" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="N210" s="22" t="s">
         <v>10</v>
       </c>
       <c r="P210" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="211" spans="1:16" ht="51">
@@ -12476,31 +12541,31 @@
         <v>454</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F211" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="L211" s="1">
         <v>454</v>
       </c>
       <c r="M211" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="N211" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P211" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="212" spans="1:16" ht="136">
@@ -12508,7 +12573,7 @@
         <v>560</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>189</v>
@@ -12517,22 +12582,22 @@
         <v>220</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="F212" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="L212" s="1">
         <v>560</v>
       </c>
       <c r="M212" s="1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="N212" s="5" t="s">
         <v>9</v>
       </c>
       <c r="P212" s="2" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="213" spans="1:16" ht="68">
@@ -12540,31 +12605,31 @@
         <v>567</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F213" s="13" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="L213" s="1">
         <v>567</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="N213" s="13" t="s">
         <v>10</v>
       </c>
       <c r="P213" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="214" spans="1:16" ht="51">
@@ -12572,31 +12637,31 @@
         <v>582</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E214" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="F214" s="13" t="s">
         <v>986</v>
-      </c>
-      <c r="F214" s="13" t="s">
-        <v>988</v>
       </c>
       <c r="L214" s="1">
         <v>582</v>
       </c>
       <c r="M214" s="1" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="N214" s="13" t="s">
         <v>10</v>
       </c>
       <c r="P214" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="215" spans="1:16" ht="51">
@@ -12604,31 +12669,31 @@
         <v>621</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F215" s="13" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="L215" s="1">
         <v>621</v>
       </c>
       <c r="M215" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="N215" s="13" t="s">
         <v>10</v>
       </c>
       <c r="P215" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="216" spans="1:16" ht="34">
@@ -12636,31 +12701,31 @@
         <v>622</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F216" s="13" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="L216" s="1">
         <v>622</v>
       </c>
       <c r="M216" s="1" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="N216" s="13" t="s">
         <v>10</v>
       </c>
       <c r="P216" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="217" spans="1:16" ht="17">
@@ -12668,31 +12733,31 @@
         <v>641</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F217" s="13" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="L217" s="1">
         <v>641</v>
       </c>
       <c r="M217" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="N217" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P217" s="2" t="s">
         <v>998</v>
-      </c>
-      <c r="N217" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P217" s="2" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="218" spans="1:16" ht="51">
@@ -12700,31 +12765,31 @@
         <v>684</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E218" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F218" s="13" t="s">
         <v>1003</v>
-      </c>
-      <c r="F218" s="13" t="s">
-        <v>1005</v>
       </c>
       <c r="L218" s="1">
         <v>684</v>
       </c>
       <c r="M218" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="N218" s="13" t="s">
         <v>10</v>
       </c>
       <c r="P218" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="219" spans="1:16" ht="68">
@@ -12732,31 +12797,31 @@
         <v>721</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F219" s="13" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="L219" s="1">
         <v>721</v>
       </c>
       <c r="M219" s="1" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="N219" s="13" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P219" s="2" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="220" spans="1:16" ht="68">
@@ -12764,7 +12829,7 @@
         <v>729</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>65</v>
@@ -12773,22 +12838,22 @@
         <v>220</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F220" s="13" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="L220" s="1">
         <v>729</v>
       </c>
       <c r="M220" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="N220" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P220" s="2" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="221" spans="1:16" ht="102">
@@ -12796,31 +12861,31 @@
         <v>737</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F221" s="13" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="L221" s="1">
         <v>737</v>
       </c>
       <c r="M221" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="N221" s="13" t="s">
         <v>10</v>
       </c>
       <c r="P221" s="2" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="222" spans="1:16" ht="68">
@@ -12828,31 +12893,31 @@
         <v>743</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D222" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F222" s="13" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="L222" s="1">
         <v>743</v>
       </c>
       <c r="M222" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="N222" s="13" t="s">
         <v>9</v>
       </c>
       <c r="P222" s="2" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="223" spans="1:16" ht="51">
@@ -12860,7 +12925,7 @@
         <v>754</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>40</v>
@@ -12869,22 +12934,22 @@
         <v>220</v>
       </c>
       <c r="E223" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F223" s="13" t="s">
         <v>1025</v>
-      </c>
-      <c r="F223" s="13" t="s">
-        <v>1027</v>
       </c>
       <c r="L223" s="1">
         <v>754</v>
       </c>
       <c r="M223" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="N223" s="13" t="s">
         <v>80</v>
       </c>
       <c r="P223" s="2" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="224" spans="1:16">
@@ -12913,31 +12978,31 @@
         <v>4</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F229" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="L229" s="3">
         <v>4</v>
       </c>
       <c r="M229" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="N229" s="5" t="s">
         <v>80</v>
       </c>
       <c r="P229" s="2" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="230" spans="1:16" s="13" customFormat="1" ht="78" customHeight="1">
@@ -12945,31 +13010,31 @@
         <v>10</v>
       </c>
       <c r="B230" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C230" s="13" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D230" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="E230" s="13" t="s">
         <v>1029</v>
       </c>
-      <c r="C230" s="13" t="s">
+      <c r="F230" s="13" t="s">
+        <v>1038</v>
+      </c>
+      <c r="L230" s="13">
+        <v>10</v>
+      </c>
+      <c r="M230" s="13" t="s">
+        <v>1027</v>
+      </c>
+      <c r="N230" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="P230" s="2" t="s">
         <v>1030</v>
-      </c>
-      <c r="D230" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="E230" s="13" t="s">
-        <v>1031</v>
-      </c>
-      <c r="F230" s="13" t="s">
-        <v>1040</v>
-      </c>
-      <c r="L230" s="13">
-        <v>10</v>
-      </c>
-      <c r="M230" s="13" t="s">
-        <v>1029</v>
-      </c>
-      <c r="N230" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="P230" s="2" t="s">
-        <v>1032</v>
       </c>
     </row>
     <row r="231" spans="1:16" ht="97" customHeight="1">
@@ -12977,31 +13042,31 @@
         <v>23</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F231" s="1" t="s">
         <v>548</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>1035</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="L231" s="23">
         <v>23</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="N231" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P231" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="232" spans="1:16" ht="34">
@@ -13009,31 +13074,31 @@
         <v>25</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E232" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="F232" s="1" t="s">
         <v>576</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>578</v>
       </c>
       <c r="L232" s="23">
         <v>25</v>
       </c>
       <c r="M232" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="N232" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P232" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="N232" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P232" s="2" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="233" spans="1:16" ht="170">
@@ -13041,31 +13106,31 @@
         <v>42</v>
       </c>
       <c r="B233" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F233" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>546</v>
       </c>
       <c r="L233" s="1">
         <v>42</v>
       </c>
       <c r="M233" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="N233" s="5" t="s">
         <v>80</v>
       </c>
       <c r="P233" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="234" spans="1:16" s="13" customFormat="1" ht="51">
@@ -13073,31 +13138,31 @@
         <v>44</v>
       </c>
       <c r="B234" s="13" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="C234" s="13" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="D234" s="13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E234" s="13" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F234" s="13" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="L234" s="13">
         <v>44</v>
       </c>
       <c r="M234" s="13" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="N234" s="13" t="s">
         <v>9</v>
       </c>
       <c r="P234" s="2" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="235" spans="1:16" ht="17">
@@ -13105,31 +13170,31 @@
         <v>45</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>133</v>
       </c>
       <c r="D235" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="L235" s="1">
         <v>45</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="N235" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P235" s="2" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="236" spans="1:16" ht="68">
@@ -13137,31 +13202,31 @@
         <v>57</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F236" s="1" t="s">
         <v>1041</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>1043</v>
       </c>
       <c r="L236" s="1">
         <v>57</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="N236" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P236" s="2" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="237" spans="1:16" ht="68">
@@ -13169,31 +13234,31 @@
         <v>72</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D237" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="L237" s="1">
         <v>72</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P237" s="2" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="238" spans="1:16" ht="34">
@@ -13201,19 +13266,19 @@
         <v>76</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L238" s="3">
         <v>76</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="239" spans="1:16" ht="74" customHeight="1">
@@ -13221,31 +13286,31 @@
         <v>84</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E239" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C239" s="1" t="s">
-        <v>580</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E239" s="1" t="s">
+      <c r="F239" s="3" t="s">
         <v>581</v>
-      </c>
-      <c r="F239" s="3" t="s">
-        <v>583</v>
       </c>
       <c r="L239" s="1">
         <v>84</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="N239" s="5" t="s">
         <v>80</v>
       </c>
       <c r="P239" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="240" spans="1:16" ht="74" customHeight="1">
@@ -13253,31 +13318,31 @@
         <v>85</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E240" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>1052</v>
-      </c>
       <c r="F240" s="1" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="L240" s="1">
         <v>85</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="N240" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P240" s="2" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="241" spans="1:16" ht="74" customHeight="1">
@@ -13285,31 +13350,31 @@
         <v>115</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>219</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E241" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F241" s="1" t="s">
         <v>1058</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>1060</v>
       </c>
       <c r="L241" s="1">
         <v>115</v>
       </c>
       <c r="M241" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="N241" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P241" s="2" t="s">
         <v>1057</v>
-      </c>
-      <c r="N241" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P241" s="2" t="s">
-        <v>1059</v>
       </c>
     </row>
     <row r="242" spans="1:16" ht="119">
@@ -13317,31 +13382,31 @@
         <v>124</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D242" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="L242" s="1">
         <v>124</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="N242" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P242" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="243" spans="1:16" ht="34">
@@ -13349,31 +13414,31 @@
         <v>128</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="L243" s="1">
         <v>128</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N243" s="1" t="s">
         <v>80</v>
       </c>
       <c r="P243" s="2" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="244" spans="1:16" ht="68">
@@ -13381,31 +13446,31 @@
         <v>135</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E244" s="1" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="L244" s="1">
         <v>135</v>
       </c>
       <c r="M244" s="1" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="N244" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P244" s="2" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="245" spans="1:16" ht="51">
@@ -13413,31 +13478,31 @@
         <v>140</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="L245" s="1">
         <v>140</v>
       </c>
       <c r="M245" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N245" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P245" s="2" t="s">
         <v>1069</v>
-      </c>
-      <c r="N245" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="P245" s="2" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="246" spans="1:16" ht="68">
@@ -13445,31 +13510,31 @@
         <v>145</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E246" s="1" t="s">
         <v>1074</v>
       </c>
-      <c r="C246" s="1" t="s">
+      <c r="F246" s="1" t="s">
         <v>1075</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>1077</v>
       </c>
       <c r="L246" s="1">
         <v>145</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="N246" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P246" s="2" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="247" spans="1:16" ht="51">
@@ -13477,31 +13542,31 @@
         <v>149</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L247" s="1">
         <v>149</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="N247" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P247" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="248" spans="1:16" ht="34">
@@ -13509,31 +13574,31 @@
         <v>233</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E248" s="1" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F248" s="1" t="s">
         <v>1080</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>1082</v>
       </c>
       <c r="L248" s="1">
         <v>233</v>
       </c>
       <c r="M248" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="N248" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="P248" s="2" t="s">
         <v>1079</v>
-      </c>
-      <c r="N248" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="P248" s="2" t="s">
-        <v>1081</v>
       </c>
     </row>
     <row r="249" spans="1:16" ht="85">
@@ -13541,31 +13606,31 @@
         <v>239</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E249" s="1" t="s">
         <v>1083</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="F249" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>1085</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>1086</v>
       </c>
       <c r="L249" s="1">
         <v>239</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="N249" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P249" s="2" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="250" spans="1:16" ht="34">
@@ -13573,31 +13638,31 @@
         <v>248</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="D250" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F250" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>1089</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>1090</v>
       </c>
       <c r="L250" s="1">
         <v>248</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="N250" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P250" s="2" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="251" spans="1:16" ht="136">
@@ -13605,31 +13670,31 @@
         <v>269</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F251" s="1" t="s">
         <v>630</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="F251" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="L251" s="1">
         <v>269</v>
       </c>
       <c r="M251" s="1" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="N251" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P251" s="2" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="252" spans="1:16" ht="34">
@@ -13637,31 +13702,31 @@
         <v>272</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F252" s="1" t="s">
         <v>1092</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E252" s="1" t="s">
-        <v>1093</v>
-      </c>
-      <c r="F252" s="1" t="s">
-        <v>1094</v>
       </c>
       <c r="L252" s="1">
         <v>272</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="N252" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P252" s="2" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="253" spans="1:16" ht="68">
@@ -13669,31 +13734,31 @@
         <v>295</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E253" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C253" s="1" t="s">
+      <c r="F253" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E253" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="F253" s="3" t="s">
-        <v>587</v>
       </c>
       <c r="L253" s="1">
         <v>295</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="N253" s="5" t="s">
         <v>80</v>
       </c>
       <c r="P253" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="254" spans="1:16" ht="97" customHeight="1">
@@ -13701,31 +13766,31 @@
         <v>297</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C254" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D254" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E254" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F254" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="F254" s="1" t="s">
-        <v>598</v>
       </c>
       <c r="L254" s="1">
         <v>297</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="N254" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P254" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="255" spans="1:16" ht="68">
@@ -13733,31 +13798,31 @@
         <v>301</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E255" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C255" s="1" t="s">
+      <c r="F255" s="1" t="s">
         <v>568</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E255" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="F255" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="L255" s="1">
         <v>301</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="N255" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P255" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="256" spans="1:16" ht="119">
@@ -13765,31 +13830,31 @@
         <v>305</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E256" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F256" s="3" t="s">
         <v>1096</v>
-      </c>
-      <c r="F256" s="3" t="s">
-        <v>1098</v>
       </c>
       <c r="L256" s="1">
         <v>305</v>
       </c>
       <c r="M256" s="1" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="N256" s="5" t="s">
         <v>9</v>
       </c>
       <c r="P256" s="2" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="257" spans="1:16" ht="85">
@@ -13797,31 +13862,31 @@
         <v>312</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="C257" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E257" s="1" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="F257" s="5" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="L257" s="1">
         <v>312</v>
       </c>
       <c r="M257" s="1" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="N257" s="5" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="P257" s="2" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="258" spans="1:16" ht="102">
@@ -13829,31 +13894,31 @@
         <v>315</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="F258" s="5" t="s">
         <v>1103</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E258" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="F258" s="5" t="s">
-        <v>1105</v>
       </c>
       <c r="L258" s="1">
         <v>315</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="N258" s="5" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="P258" s="2" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="259" spans="1:16" ht="68">
@@ -13861,31 +13926,31 @@
         <v>316</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E259" s="1" t="s">
         <v>1107</v>
       </c>
-      <c r="C259" s="1" t="s">
+      <c r="F259" s="1" t="s">
         <v>1108</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E259" s="1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="F259" s="1" t="s">
-        <v>1110</v>
       </c>
       <c r="L259" s="1">
         <v>316</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="N259" s="1" t="s">
         <v>80</v>
       </c>
       <c r="P259" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="260" spans="1:16" ht="34">
@@ -13893,31 +13958,31 @@
         <v>329</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E260" s="1" t="s">
         <v>1112</v>
       </c>
-      <c r="C260" s="1" t="s">
+      <c r="F260" s="1" t="s">
         <v>1113</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E260" s="1" t="s">
-        <v>1114</v>
-      </c>
-      <c r="F260" s="1" t="s">
-        <v>1115</v>
       </c>
       <c r="L260" s="1">
         <v>329</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="N260" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P260" s="2" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="261" spans="1:16" ht="102">
@@ -13925,31 +13990,31 @@
         <v>340</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E261" s="1" t="s">
         <v>1117</v>
       </c>
-      <c r="C261" s="1" t="s">
+      <c r="F261" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>1119</v>
-      </c>
-      <c r="F261" s="1" t="s">
-        <v>1120</v>
       </c>
       <c r="L261" s="1">
         <v>340</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="N261" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P261" s="2" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="262" spans="1:16" ht="85">
@@ -13957,31 +14022,31 @@
         <v>358</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E262" s="1" t="s">
         <v>1122</v>
       </c>
-      <c r="C262" s="1" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E262" s="1" t="s">
+      <c r="F262" s="1" t="s">
         <v>1124</v>
-      </c>
-      <c r="F262" s="1" t="s">
-        <v>1126</v>
       </c>
       <c r="L262" s="1">
         <v>358</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="N262" s="1" t="s">
         <v>9</v>
       </c>
       <c r="P262" s="2" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="263" spans="1:16" ht="34">
@@ -13989,31 +14054,31 @@
         <v>363</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E263" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="C263" s="1" t="s">
+      <c r="F263" s="1" t="s">
         <v>1128</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="F263" s="1" t="s">
-        <v>1130</v>
       </c>
       <c r="L263" s="1">
         <v>363</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="N263" s="1" t="s">
         <v>10</v>
       </c>
       <c r="P263" s="2" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="264" spans="1:16" ht="119">
@@ -14021,31 +14086,31 @@
         <v>381</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C264" s="1" t="s">
         <v>225</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="F264" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L264" s="1">
         <v>381</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="N264" s="5" t="s">
         <v>80</v>
       </c>
       <c r="P264" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="265" spans="1:16" ht="51">
@@ -14053,23 +14118,23 @@
         <v>411</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D265" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E265" s="1" t="s">
         <v>1132</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>1134</v>
       </c>
       <c r="F265" s="3"/>
       <c r="L265" s="1">
         <v>411</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="N265" s="5"/>
       <c r="P265" s="2"/>
@@ -14079,19 +14144,19 @@
         <v>458</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C266" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="L266" s="1">
         <v>458</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="267" spans="1:16" ht="68">
@@ -14099,31 +14164,31 @@
         <v>862</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="D267" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E267" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C267" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>601</v>
-      </c>
       <c r="F267" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="L267" s="1">
         <v>862</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="N267" s="5" t="s">
         <v>80</v>
       </c>
       <c r="P267" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -14376,6 +14441,7 @@
     <hyperlink ref="P39" r:id="rId240" xr:uid="{ADD1597E-3E30-9948-BA60-58B0DC81D975}"/>
     <hyperlink ref="P43" r:id="rId241" xr:uid="{C2D50D86-FCF0-C341-815C-74563AC5946A}"/>
     <hyperlink ref="P45" r:id="rId242" xr:uid="{30E208AF-F487-254C-894D-9A0A855FEE38}"/>
+    <hyperlink ref="P188" r:id="rId243" xr:uid="{4FA3003C-15C5-EB4D-959E-1C750D2D163B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
